--- a/data/clubesmeandw.xlsx
+++ b/data/clubesmeandw.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,27 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\DataJamCRC\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF59B951-3CCA-44BB-8D63-578EACAF9ED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59FD0C36-A6EB-4F53-9C90-0A149DEC718B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="clubesmeandw" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">clubesmeandw!$A$1:$A$820</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">clubesmeandw!$A$1:$A$2603</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -44,7 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -878,11 +868,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B820"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1056"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A799" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,7 +1175,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>50318</v>
+        <v>68250</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1193,7 +1183,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>41006</v>
+        <v>50318</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1201,7 +1191,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>50330</v>
+        <v>41006</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1209,7 +1199,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>50400</v>
+        <v>50330</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1217,7 +1207,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>25099</v>
+        <v>15798</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1225,7 +1215,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>17513</v>
+        <v>50400</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1233,7 +1223,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>52573</v>
+        <v>25099</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1241,7 +1231,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>20570</v>
+        <v>17513</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1249,7 +1239,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>5604</v>
+        <v>52573</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -1257,7 +1247,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>25035</v>
+        <v>20570</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -1265,7 +1255,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>76622</v>
+        <v>5604</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1273,7 +1263,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>15646</v>
+        <v>25035</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1281,7 +1271,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>52320</v>
+        <v>50450</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1289,7 +1279,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>85139</v>
+        <v>76622</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1297,7 +1287,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>68669</v>
+        <v>15646</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -1305,7 +1295,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>18150</v>
+        <v>52320</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1313,7 +1303,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>68872</v>
+        <v>85139</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1321,7 +1311,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>13654</v>
+        <v>68669</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1329,7 +1319,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>17050</v>
+        <v>18150</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -1337,7 +1327,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>85162</v>
+        <v>68872</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1345,7 +1335,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>81065</v>
+        <v>13654</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -1353,7 +1343,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>41378</v>
+        <v>17050</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1361,7 +1351,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>17777</v>
+        <v>85162</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1369,7 +1359,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>15808</v>
+        <v>81065</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -1377,7 +1367,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>25394</v>
+        <v>25535</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -1385,7 +1375,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>19355</v>
+        <v>41378</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -1393,7 +1383,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>25649</v>
+        <v>15514</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -1401,7 +1391,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>19100</v>
+        <v>68051</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -1409,7 +1399,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>41078</v>
+        <v>17777</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -1417,7 +1407,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>52378</v>
+        <v>15808</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -1425,7 +1415,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>5001</v>
+        <v>25394</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -1433,7 +1423,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>50590</v>
+        <v>25845</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -1441,7 +1431,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>50313</v>
+        <v>19355</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -1449,7 +1439,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>50150</v>
+        <v>70230</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -1457,7 +1447,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>54174</v>
+        <v>25649</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -1465,7 +1455,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>86749</v>
+        <v>15664</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -1473,7 +1463,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>50223</v>
+        <v>15537</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -1481,7 +1471,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>25873</v>
+        <v>15686</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -1489,7 +1479,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>8001</v>
+        <v>19100</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -1497,7 +1487,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>68001</v>
+        <v>41660</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -1505,7 +1495,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>13780</v>
+        <v>41078</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -1513,7 +1503,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>5088</v>
+        <v>41244</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -1521,7 +1511,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>15897</v>
+        <v>50325</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -1529,7 +1519,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>17433</v>
+        <v>52378</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -1537,7 +1527,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>5148</v>
+        <v>5001</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -1545,7 +1535,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>17486</v>
+        <v>15600</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -1553,7 +1543,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>73504</v>
+        <v>50590</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -1561,7 +1551,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>18247</v>
+        <v>50313</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -1569,7 +1559,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>15176</v>
+        <v>25878</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -1577,7 +1567,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>73067</v>
+        <v>50150</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -1585,7 +1575,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>73624</v>
+        <v>54174</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -1593,7 +1583,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>20550</v>
+        <v>86749</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -1601,7 +1591,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>76109</v>
+        <v>50223</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -1609,7 +1599,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>20517</v>
+        <v>25873</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -1617,7 +1607,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>73001</v>
+        <v>8001</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -1625,7 +1615,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>50006</v>
+        <v>68001</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -1633,7 +1623,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>41396</v>
+        <v>13780</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -1641,7 +1631,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>54498</v>
+        <v>5088</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -1649,7 +1639,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>25594</v>
+        <v>15897</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -1657,7 +1647,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>68679</v>
+        <v>17433</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -1665,7 +1655,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>25245</v>
+        <v>5148</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -1673,7 +1663,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>76001</v>
+        <v>17486</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -1681,7 +1671,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>20750</v>
+        <v>73504</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -1689,7 +1679,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>5266</v>
+        <v>18247</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -1697,7 +1687,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>68132</v>
+        <v>15176</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -1705,7 +1695,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>66001</v>
+        <v>73067</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -1713,7 +1703,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>68861</v>
+        <v>73624</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -1721,7 +1711,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>76111</v>
+        <v>20550</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -1729,7 +1719,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>50124</v>
+        <v>76109</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -1737,7 +1727,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>68770</v>
+        <v>20517</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -1745,7 +1735,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>76895</v>
+        <v>73001</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -1753,7 +1743,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>68276</v>
+        <v>50006</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -1761,7 +1751,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>73686</v>
+        <v>41396</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -1769,7 +1759,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>76122</v>
+        <v>54498</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -1777,7 +1767,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>54001</v>
+        <v>25594</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -1785,7 +1775,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>50001</v>
+        <v>68679</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -1793,7 +1783,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>54518</v>
+        <v>25245</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -1801,7 +1791,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>68895</v>
+        <v>76001</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -1809,7 +1799,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>68101</v>
+        <v>20750</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -1817,7 +1807,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>5607</v>
+        <v>5266</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -1825,7 +1815,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>5380</v>
+        <v>68132</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -1833,7 +1823,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>20045</v>
+        <v>25281</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -1841,7 +1831,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>13001</v>
+        <v>66001</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -1849,7 +1839,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>70429</v>
+        <v>68861</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -1857,7 +1847,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>52227</v>
+        <v>15185</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -1865,7 +1855,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>52001</v>
+        <v>76111</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -1873,7 +1863,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>25151</v>
+        <v>50124</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -1881,7 +1871,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>25817</v>
+        <v>68770</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -1889,7 +1879,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>47001</v>
+        <v>76895</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -1897,7 +1887,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>20250</v>
+        <v>68276</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -1905,7 +1895,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>68307</v>
+        <v>73686</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -1913,7 +1903,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>25175</v>
+        <v>76122</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -1921,7 +1911,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>76892</v>
+        <v>54001</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -1929,7 +1919,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>5059</v>
+        <v>50001</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -1937,7 +1927,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>73408</v>
+        <v>54518</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -1945,7 +1935,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>52110</v>
+        <v>68895</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -1953,7 +1943,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>50287</v>
+        <v>68101</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -1961,7 +1951,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>85001</v>
+        <v>5607</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -1969,7 +1959,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>13442</v>
+        <v>5380</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -1977,71 +1967,71 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>15087</v>
+        <v>20045</v>
       </c>
       <c r="B137">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>68077</v>
+        <v>13001</v>
       </c>
       <c r="B138">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>85410</v>
+        <v>13458</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>5360</v>
+        <v>70429</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>68755</v>
+        <v>52227</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>68855</v>
+        <v>52001</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>19698</v>
+        <v>25151</v>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>5631</v>
+        <v>25817</v>
       </c>
       <c r="B144">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>73055</v>
+        <v>47001</v>
       </c>
       <c r="B145">
         <v>2</v>
@@ -2049,7 +2039,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>41001</v>
+        <v>20250</v>
       </c>
       <c r="B146">
         <v>2</v>
@@ -2057,7 +2047,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>25126</v>
+        <v>68307</v>
       </c>
       <c r="B147">
         <v>2</v>
@@ -2065,7 +2055,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>50711</v>
+        <v>25175</v>
       </c>
       <c r="B148">
         <v>2</v>
@@ -2073,7 +2063,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>73026</v>
+        <v>76892</v>
       </c>
       <c r="B149">
         <v>2</v>
@@ -2081,7 +2071,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>27001</v>
+        <v>5059</v>
       </c>
       <c r="B150">
         <v>2</v>
@@ -2089,7 +2079,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>76248</v>
+        <v>73408</v>
       </c>
       <c r="B151">
         <v>2</v>
@@ -2097,7 +2087,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>15632</v>
+        <v>52110</v>
       </c>
       <c r="B152">
         <v>2</v>
@@ -2105,7 +2095,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>25123</v>
+        <v>50287</v>
       </c>
       <c r="B153">
         <v>2</v>
@@ -2113,7 +2103,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>54874</v>
+        <v>85001</v>
       </c>
       <c r="B154">
         <v>2</v>
@@ -2121,7 +2111,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>50251</v>
+        <v>13442</v>
       </c>
       <c r="B155">
         <v>2</v>
@@ -2129,7 +2119,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>25754</v>
+        <v>15087</v>
       </c>
       <c r="B156">
         <v>2</v>
@@ -2137,7 +2127,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>17001</v>
+        <v>68077</v>
       </c>
       <c r="B157">
         <v>2</v>
@@ -2145,7 +2135,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>25214</v>
+        <v>85410</v>
       </c>
       <c r="B158">
         <v>2</v>
@@ -2153,7 +2143,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>5615</v>
+        <v>5360</v>
       </c>
       <c r="B159">
         <v>2</v>
@@ -2161,7 +2151,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>15861</v>
+        <v>68755</v>
       </c>
       <c r="B160">
         <v>2</v>
@@ -2169,7 +2159,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>76520</v>
+        <v>68855</v>
       </c>
       <c r="B161">
         <v>2</v>
@@ -2177,7 +2167,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>68444</v>
+        <v>19698</v>
       </c>
       <c r="B162">
         <v>2</v>
@@ -2185,7 +2175,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>73520</v>
+        <v>5631</v>
       </c>
       <c r="B163">
         <v>2</v>
@@ -2193,7 +2183,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>52585</v>
+        <v>41801</v>
       </c>
       <c r="B164">
         <v>2</v>
@@ -2201,7 +2191,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>20175</v>
+        <v>73055</v>
       </c>
       <c r="B165">
         <v>2</v>
@@ -2209,7 +2199,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>52356</v>
+        <v>86757</v>
       </c>
       <c r="B166">
         <v>2</v>
@@ -2217,7 +2207,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>70110</v>
+        <v>41001</v>
       </c>
       <c r="B167">
         <v>2</v>
@@ -2225,7 +2215,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>73347</v>
+        <v>25126</v>
       </c>
       <c r="B168">
         <v>2</v>
@@ -2233,7 +2223,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>41020</v>
+        <v>50711</v>
       </c>
       <c r="B169">
         <v>2</v>
@@ -2241,7 +2231,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>85300</v>
+        <v>73026</v>
       </c>
       <c r="B170">
         <v>2</v>
@@ -2249,7 +2239,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>25307</v>
+        <v>27001</v>
       </c>
       <c r="B171">
         <v>2</v>
@@ -2257,7 +2247,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>25297</v>
+        <v>76248</v>
       </c>
       <c r="B172">
         <v>2</v>
@@ -2265,7 +2255,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>76606</v>
+        <v>15632</v>
       </c>
       <c r="B173">
         <v>2</v>
@@ -2273,7 +2263,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>19001</v>
+        <v>25123</v>
       </c>
       <c r="B174">
         <v>2</v>
@@ -2281,7 +2271,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>15238</v>
+        <v>54874</v>
       </c>
       <c r="B175">
         <v>2</v>
@@ -2289,7 +2279,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>15759</v>
+        <v>50251</v>
       </c>
       <c r="B176">
         <v>2</v>
@@ -2297,7 +2287,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>25772</v>
+        <v>20443</v>
       </c>
       <c r="B177">
         <v>2</v>
@@ -2305,7 +2295,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>5376</v>
+        <v>25754</v>
       </c>
       <c r="B178">
         <v>2</v>
@@ -2313,7 +2303,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>17444</v>
+        <v>17001</v>
       </c>
       <c r="B179">
         <v>2</v>
@@ -2321,7 +2311,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>47288</v>
+        <v>15814</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -2329,7 +2319,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>76113</v>
+        <v>25317</v>
       </c>
       <c r="B181">
         <v>2</v>
@@ -2337,7 +2327,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>25875</v>
+        <v>25214</v>
       </c>
       <c r="B182">
         <v>2</v>
@@ -2345,7 +2335,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>25843</v>
+        <v>5615</v>
       </c>
       <c r="B183">
         <v>2</v>
@@ -2353,7 +2343,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>25312</v>
+        <v>15861</v>
       </c>
       <c r="B184">
         <v>2</v>
@@ -2361,7 +2351,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>20710</v>
+        <v>76520</v>
       </c>
       <c r="B185">
         <v>2</v>
@@ -2369,7 +2359,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>5079</v>
+        <v>15097</v>
       </c>
       <c r="B186">
         <v>2</v>
@@ -2377,7 +2367,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>73030</v>
+        <v>15681</v>
       </c>
       <c r="B187">
         <v>2</v>
@@ -2385,7 +2375,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>15455</v>
+        <v>68444</v>
       </c>
       <c r="B188">
         <v>2</v>
@@ -2393,7 +2383,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>70001</v>
+        <v>73520</v>
       </c>
       <c r="B189">
         <v>2</v>
@@ -2401,7 +2391,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>25841</v>
+        <v>52585</v>
       </c>
       <c r="B190">
         <v>2</v>
@@ -2409,7 +2399,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>25513</v>
+        <v>20175</v>
       </c>
       <c r="B191">
         <v>2</v>
@@ -2417,7 +2407,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>73449</v>
+        <v>52356</v>
       </c>
       <c r="B192">
         <v>2</v>
@@ -2425,7 +2415,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>15001</v>
+        <v>70110</v>
       </c>
       <c r="B193">
         <v>2</v>
@@ -2433,7 +2423,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>85010</v>
+        <v>73347</v>
       </c>
       <c r="B194">
         <v>2</v>
@@ -2441,7 +2431,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>41551</v>
+        <v>41020</v>
       </c>
       <c r="B195">
         <v>2</v>
@@ -2449,7 +2439,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>25662</v>
+        <v>13440</v>
       </c>
       <c r="B196">
         <v>2</v>
@@ -2457,7 +2447,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>5697</v>
+        <v>85300</v>
       </c>
       <c r="B197">
         <v>2</v>
@@ -2465,7 +2455,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>25899</v>
+        <v>25307</v>
       </c>
       <c r="B198">
         <v>2</v>
@@ -2473,7 +2463,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>66170</v>
+        <v>15764</v>
       </c>
       <c r="B199">
         <v>2</v>
@@ -2481,7 +2471,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>54810</v>
+        <v>25297</v>
       </c>
       <c r="B200">
         <v>2</v>
@@ -2489,7 +2479,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>68298</v>
+        <v>76606</v>
       </c>
       <c r="B201">
         <v>2</v>
@@ -2497,7 +2487,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>23001</v>
+        <v>19001</v>
       </c>
       <c r="B202">
         <v>2</v>
@@ -2505,7 +2495,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>17616</v>
+        <v>15238</v>
       </c>
       <c r="B203">
         <v>2</v>
@@ -2513,7 +2503,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>5129</v>
+        <v>15759</v>
       </c>
       <c r="B204">
         <v>2</v>
@@ -2521,7 +2511,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>50680</v>
+        <v>25772</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -2529,7 +2519,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>50606</v>
+        <v>25736</v>
       </c>
       <c r="B206">
         <v>2</v>
@@ -2537,7 +2527,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>25290</v>
+        <v>15790</v>
       </c>
       <c r="B207">
         <v>2</v>
@@ -2545,7 +2535,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>68327</v>
+        <v>15403</v>
       </c>
       <c r="B208">
         <v>2</v>
@@ -2553,7 +2543,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>15480</v>
+        <v>5376</v>
       </c>
       <c r="B209">
         <v>2</v>
@@ -2561,7 +2551,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>15322</v>
+        <v>17444</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2569,7 +2559,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>76306</v>
+        <v>47288</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -2577,7 +2567,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>73622</v>
+        <v>76113</v>
       </c>
       <c r="B212">
         <v>2</v>
@@ -2585,7 +2575,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>68432</v>
+        <v>25875</v>
       </c>
       <c r="B213">
         <v>2</v>
@@ -2593,7 +2583,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>13222</v>
+        <v>25843</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -2601,7 +2591,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>13006</v>
+        <v>25312</v>
       </c>
       <c r="B215">
         <v>2</v>
@@ -2609,7 +2599,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>8758</v>
+        <v>20710</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -2617,7 +2607,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>50577</v>
+        <v>5079</v>
       </c>
       <c r="B217">
         <v>2</v>
@@ -2625,7 +2615,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>68547</v>
+        <v>73030</v>
       </c>
       <c r="B218">
         <v>2</v>
@@ -2633,7 +2623,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>17013</v>
+        <v>15455</v>
       </c>
       <c r="B219">
         <v>2</v>
@@ -2641,7 +2631,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>15051</v>
+        <v>70001</v>
       </c>
       <c r="B220">
         <v>2</v>
@@ -2649,7 +2639,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>20001</v>
+        <v>25841</v>
       </c>
       <c r="B221">
         <v>2</v>
@@ -2657,7 +2647,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>15599</v>
+        <v>25513</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -2665,7 +2655,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>68167</v>
+        <v>20787</v>
       </c>
       <c r="B223">
         <v>2</v>
@@ -2673,7 +2663,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>25386</v>
+        <v>73449</v>
       </c>
       <c r="B224">
         <v>2</v>
@@ -2681,7 +2671,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>19532</v>
+        <v>15001</v>
       </c>
       <c r="B225">
         <v>2</v>
@@ -2689,7 +2679,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>76616</v>
+        <v>85010</v>
       </c>
       <c r="B226">
         <v>2</v>
@@ -2697,7 +2687,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>81001</v>
+        <v>41551</v>
       </c>
       <c r="B227">
         <v>2</v>
@@ -2705,7 +2695,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>68867</v>
+        <v>25662</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -2713,7 +2703,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>68229</v>
+        <v>5697</v>
       </c>
       <c r="B229">
         <v>2</v>
@@ -2721,7 +2711,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>15299</v>
+        <v>25899</v>
       </c>
       <c r="B230">
         <v>2</v>
@@ -2729,7 +2719,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>25269</v>
+        <v>66170</v>
       </c>
       <c r="B231">
         <v>2</v>
@@ -2737,7 +2727,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>76834</v>
+        <v>54810</v>
       </c>
       <c r="B232">
         <v>2</v>
@@ -2745,7 +2735,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>70233</v>
+        <v>68298</v>
       </c>
       <c r="B233">
         <v>2</v>
@@ -2753,7 +2743,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>25377</v>
+        <v>23001</v>
       </c>
       <c r="B234">
         <v>2</v>
@@ -2761,7 +2751,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>85440</v>
+        <v>17616</v>
       </c>
       <c r="B235">
         <v>2</v>
@@ -2769,7 +2759,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>8573</v>
+        <v>5129</v>
       </c>
       <c r="B236">
         <v>2</v>
@@ -2777,7 +2767,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>63001</v>
+        <v>50680</v>
       </c>
       <c r="B237">
         <v>2</v>
@@ -2785,7 +2775,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>52678</v>
+        <v>50606</v>
       </c>
       <c r="B238">
         <v>2</v>
@@ -2793,7 +2783,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>5308</v>
+        <v>25290</v>
       </c>
       <c r="B239">
         <v>2</v>
@@ -2801,7 +2791,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>76364</v>
+        <v>68327</v>
       </c>
       <c r="B240">
         <v>2</v>
@@ -2809,7 +2799,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>5045</v>
+        <v>15480</v>
       </c>
       <c r="B241">
         <v>2</v>
@@ -2817,7 +2807,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>47245</v>
+        <v>15322</v>
       </c>
       <c r="B242">
         <v>2</v>
@@ -2825,7 +2815,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>68207</v>
+        <v>76306</v>
       </c>
       <c r="B243">
         <v>2</v>
@@ -2833,7 +2823,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>52022</v>
+        <v>15367</v>
       </c>
       <c r="B244">
         <v>2</v>
@@ -2841,7 +2831,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>44078</v>
+        <v>73622</v>
       </c>
       <c r="B245">
         <v>2</v>
@@ -2849,7 +2839,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>25148</v>
+        <v>68432</v>
       </c>
       <c r="B246">
         <v>2</v>
@@ -2857,7 +2847,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>25286</v>
+        <v>13222</v>
       </c>
       <c r="B247">
         <v>2</v>
@@ -2865,7 +2855,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>73024</v>
+        <v>13006</v>
       </c>
       <c r="B248">
         <v>2</v>
@@ -2873,7 +2863,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>52693</v>
+        <v>8758</v>
       </c>
       <c r="B249">
         <v>2</v>
@@ -2881,7 +2871,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>68498</v>
+        <v>50577</v>
       </c>
       <c r="B250">
         <v>2</v>
@@ -2889,7 +2879,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>68572</v>
+        <v>68547</v>
       </c>
       <c r="B251">
         <v>2</v>
@@ -2897,7 +2887,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>41016</v>
+        <v>17013</v>
       </c>
       <c r="B252">
         <v>2</v>
@@ -2905,7 +2895,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>68079</v>
+        <v>15051</v>
       </c>
       <c r="B253">
         <v>2</v>
@@ -2913,7 +2903,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>54377</v>
+        <v>20001</v>
       </c>
       <c r="B254">
         <v>2</v>
@@ -2921,7 +2911,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>47205</v>
+        <v>15599</v>
       </c>
       <c r="B255">
         <v>2</v>
@@ -2929,7 +2919,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>25799</v>
+        <v>68167</v>
       </c>
       <c r="B256">
         <v>2</v>
@@ -2937,7 +2927,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>41132</v>
+        <v>25386</v>
       </c>
       <c r="B257">
         <v>2</v>
@@ -2945,7 +2935,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>85125</v>
+        <v>19532</v>
       </c>
       <c r="B258">
         <v>2</v>
@@ -2953,7 +2943,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>68406</v>
+        <v>68255</v>
       </c>
       <c r="B259">
         <v>2</v>
@@ -2961,7 +2951,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>68533</v>
+        <v>76616</v>
       </c>
       <c r="B260">
         <v>2</v>
@@ -2969,7 +2959,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>15757</v>
+        <v>81001</v>
       </c>
       <c r="B261">
         <v>2</v>
@@ -2977,7 +2967,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>15407</v>
+        <v>68867</v>
       </c>
       <c r="B262">
         <v>2</v>
@@ -2985,7 +2975,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>25758</v>
+        <v>68229</v>
       </c>
       <c r="B263">
         <v>2</v>
@@ -2993,7 +2983,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>73671</v>
+        <v>15299</v>
       </c>
       <c r="B264">
         <v>2</v>
@@ -3001,7 +2991,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>15667</v>
+        <v>25269</v>
       </c>
       <c r="B265">
         <v>2</v>
@@ -3009,7 +2999,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>73270</v>
+        <v>76834</v>
       </c>
       <c r="B266">
         <v>2</v>
@@ -3017,7 +3007,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>73268</v>
+        <v>70233</v>
       </c>
       <c r="B267">
         <v>2</v>
@@ -3025,7 +3015,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>73675</v>
+        <v>25377</v>
       </c>
       <c r="B268">
         <v>2</v>
@@ -3033,7 +3023,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>15183</v>
+        <v>85440</v>
       </c>
       <c r="B269">
         <v>2</v>
@@ -3041,7 +3031,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>25473</v>
+        <v>8573</v>
       </c>
       <c r="B270">
         <v>2</v>
@@ -3049,7 +3039,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>19450</v>
+        <v>63001</v>
       </c>
       <c r="B271">
         <v>2</v>
@@ -3057,7 +3047,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>25426</v>
+        <v>52678</v>
       </c>
       <c r="B272">
         <v>2</v>
@@ -3065,7 +3055,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>44855</v>
+        <v>5308</v>
       </c>
       <c r="B273">
         <v>2</v>
@@ -3073,7 +3063,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>76869</v>
+        <v>76364</v>
       </c>
       <c r="B274">
         <v>2</v>
@@ -3081,7 +3071,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>25402</v>
+        <v>5045</v>
       </c>
       <c r="B275">
         <v>2</v>
@@ -3089,7 +3079,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>13468</v>
+        <v>47245</v>
       </c>
       <c r="B276">
         <v>2</v>
@@ -3097,7 +3087,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>41298</v>
+        <v>68207</v>
       </c>
       <c r="B277">
         <v>2</v>
@@ -3105,7 +3095,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>68324</v>
+        <v>52022</v>
       </c>
       <c r="B278">
         <v>2</v>
@@ -3113,7 +3103,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>25885</v>
+        <v>44078</v>
       </c>
       <c r="B279">
         <v>2</v>
@@ -3121,7 +3111,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>5440</v>
+        <v>25148</v>
       </c>
       <c r="B280">
         <v>2</v>
@@ -3129,7 +3119,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>15248</v>
+        <v>25286</v>
       </c>
       <c r="B281">
         <v>2</v>
@@ -3137,7 +3127,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>68615</v>
+        <v>73024</v>
       </c>
       <c r="B282">
         <v>2</v>
@@ -3145,7 +3135,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>19075</v>
+        <v>52693</v>
       </c>
       <c r="B283">
         <v>2</v>
@@ -3153,7 +3143,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>13670</v>
+        <v>68498</v>
       </c>
       <c r="B284">
         <v>2</v>
@@ -3161,7 +3151,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>73043</v>
+        <v>68572</v>
       </c>
       <c r="B285">
         <v>2</v>
@@ -3169,7 +3159,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>25491</v>
+        <v>41016</v>
       </c>
       <c r="B286">
         <v>2</v>
@@ -3177,7 +3167,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>17873</v>
+        <v>68079</v>
       </c>
       <c r="B287">
         <v>2</v>
@@ -3185,7 +3175,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>25183</v>
+        <v>54377</v>
       </c>
       <c r="B288">
         <v>2</v>
@@ -3193,7 +3183,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>68682</v>
+        <v>47205</v>
       </c>
       <c r="B289">
         <v>2</v>
@@ -3201,7 +3191,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>68081</v>
+        <v>25799</v>
       </c>
       <c r="B290">
         <v>2</v>
@@ -3209,7 +3199,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>52079</v>
+        <v>41132</v>
       </c>
       <c r="B291">
         <v>2</v>
@@ -3217,7 +3207,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>15469</v>
+        <v>85125</v>
       </c>
       <c r="B292">
         <v>2</v>
@@ -3225,7 +3215,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>68655</v>
+        <v>68406</v>
       </c>
       <c r="B293">
         <v>2</v>
@@ -3233,7 +3223,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>54553</v>
+        <v>68533</v>
       </c>
       <c r="B294">
         <v>2</v>
@@ -3241,7 +3231,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>15236</v>
+        <v>15757</v>
       </c>
       <c r="B295">
         <v>2</v>
@@ -3249,7 +3239,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>52019</v>
+        <v>15407</v>
       </c>
       <c r="B296">
         <v>2</v>
@@ -3257,7 +3247,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>25200</v>
+        <v>25758</v>
       </c>
       <c r="B297">
         <v>2</v>
@@ -3265,7 +3255,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>25295</v>
+        <v>73671</v>
       </c>
       <c r="B298">
         <v>2</v>
@@ -3273,7 +3263,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>13673</v>
+        <v>15667</v>
       </c>
       <c r="B299">
         <v>2</v>
@@ -3281,7 +3271,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>52838</v>
+        <v>15804</v>
       </c>
       <c r="B300">
         <v>2</v>
@@ -3289,7 +3279,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>52683</v>
+        <v>73270</v>
       </c>
       <c r="B301">
         <v>2</v>
@@ -3297,7 +3287,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>15022</v>
+        <v>73268</v>
       </c>
       <c r="B302">
         <v>2</v>
@@ -3305,7 +3295,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>13188</v>
+        <v>13300</v>
       </c>
       <c r="B303">
         <v>2</v>
@@ -3313,7 +3303,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>5318</v>
+        <v>41319</v>
       </c>
       <c r="B304">
         <v>2</v>
@@ -3321,7 +3311,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>5212</v>
+        <v>73675</v>
       </c>
       <c r="B305">
         <v>2</v>
@@ -3329,7 +3319,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>70265</v>
+        <v>15183</v>
       </c>
       <c r="B306">
         <v>2</v>
@@ -3337,7 +3327,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>25839</v>
+        <v>25473</v>
       </c>
       <c r="B307">
         <v>2</v>
@@ -3345,7 +3335,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>73563</v>
+        <v>19450</v>
       </c>
       <c r="B308">
         <v>2</v>
@@ -3353,7 +3343,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>73352</v>
+        <v>25426</v>
       </c>
       <c r="B309">
         <v>2</v>
@@ -3361,7 +3351,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>73148</v>
+        <v>44855</v>
       </c>
       <c r="B310">
         <v>2</v>
@@ -3369,7 +3359,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>13052</v>
+        <v>76869</v>
       </c>
       <c r="B311">
         <v>2</v>
@@ -3377,7 +3367,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>25745</v>
+        <v>25402</v>
       </c>
       <c r="B312">
         <v>2</v>
@@ -3385,7 +3375,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>68773</v>
+        <v>13468</v>
       </c>
       <c r="B313">
         <v>2</v>
@@ -3393,7 +3383,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>25320</v>
+        <v>41298</v>
       </c>
       <c r="B314">
         <v>2</v>
@@ -3401,7 +3391,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>76250</v>
+        <v>68324</v>
       </c>
       <c r="B315">
         <v>2</v>
@@ -3409,7 +3399,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>13430</v>
+        <v>25885</v>
       </c>
       <c r="B316">
         <v>2</v>
@@ -3417,7 +3407,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>54405</v>
+        <v>5440</v>
       </c>
       <c r="B317">
         <v>2</v>
@@ -3425,7 +3415,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>15516</v>
+        <v>15248</v>
       </c>
       <c r="B318">
         <v>2</v>
@@ -3433,7 +3423,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>70400</v>
+        <v>68615</v>
       </c>
       <c r="B319">
         <v>2</v>
@@ -3441,7 +3431,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>44378</v>
+        <v>15837</v>
       </c>
       <c r="B320">
         <v>2</v>
@@ -3449,7 +3439,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>54250</v>
+        <v>19075</v>
       </c>
       <c r="B321">
         <v>2</v>
@@ -3457,7 +3447,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>68377</v>
+        <v>13670</v>
       </c>
       <c r="B322">
         <v>2</v>
@@ -3465,7 +3455,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>73861</v>
+        <v>73043</v>
       </c>
       <c r="B323">
         <v>2</v>
@@ -3473,7 +3463,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>20614</v>
+        <v>25491</v>
       </c>
       <c r="B324">
         <v>2</v>
@@ -3481,7 +3471,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>13140</v>
+        <v>17873</v>
       </c>
       <c r="B325">
         <v>2</v>
@@ -3489,7 +3479,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>73275</v>
+        <v>25183</v>
       </c>
       <c r="B326">
         <v>2</v>
@@ -3497,7 +3487,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>70717</v>
+        <v>68682</v>
       </c>
       <c r="B327">
         <v>2</v>
@@ -3505,7 +3495,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>25430</v>
+        <v>68081</v>
       </c>
       <c r="B328">
         <v>2</v>
@@ -3513,7 +3503,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>44279</v>
+        <v>15673</v>
       </c>
       <c r="B329">
         <v>2</v>
@@ -3521,7 +3511,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>66383</v>
+        <v>52079</v>
       </c>
       <c r="B330">
         <v>2</v>
@@ -3529,7 +3519,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>17541</v>
+        <v>15469</v>
       </c>
       <c r="B331">
         <v>2</v>
@@ -3537,7 +3527,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>13836</v>
+        <v>68655</v>
       </c>
       <c r="B332">
         <v>2</v>
@@ -3545,7 +3535,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>68689</v>
+        <v>54553</v>
       </c>
       <c r="B333">
         <v>2</v>
@@ -3553,7 +3543,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>73585</v>
+        <v>15236</v>
       </c>
       <c r="B334">
         <v>2</v>
@@ -3561,7 +3551,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>15693</v>
+        <v>52019</v>
       </c>
       <c r="B335">
         <v>2</v>
@@ -3569,7 +3559,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>19845</v>
+        <v>25200</v>
       </c>
       <c r="B336">
         <v>2</v>
@@ -3577,7 +3567,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>68464</v>
+        <v>25295</v>
       </c>
       <c r="B337">
         <v>2</v>
@@ -3585,7 +3575,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>15531</v>
+        <v>13673</v>
       </c>
       <c r="B338">
         <v>2</v>
@@ -3593,7 +3583,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>44001</v>
+        <v>95025</v>
       </c>
       <c r="B339">
         <v>2</v>
@@ -3601,7 +3591,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>85325</v>
+        <v>25339</v>
       </c>
       <c r="B340">
         <v>2</v>
@@ -3609,7 +3599,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>63548</v>
+        <v>52838</v>
       </c>
       <c r="B341">
         <v>2</v>
@@ -3617,7 +3607,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>68190</v>
+        <v>52683</v>
       </c>
       <c r="B342">
         <v>2</v>
@@ -3625,7 +3615,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>68418</v>
+        <v>15022</v>
       </c>
       <c r="B343">
         <v>2</v>
@@ -3633,7 +3623,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>54720</v>
+        <v>13188</v>
       </c>
       <c r="B344">
         <v>2</v>
@@ -3641,7 +3631,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>73168</v>
+        <v>8770</v>
       </c>
       <c r="B345">
         <v>2</v>
@@ -3649,7 +3639,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>85263</v>
+        <v>47170</v>
       </c>
       <c r="B346">
         <v>2</v>
@@ -3657,7 +3647,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>17662</v>
+        <v>5318</v>
       </c>
       <c r="B347">
         <v>2</v>
@@ -3665,7 +3655,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>52240</v>
+        <v>5212</v>
       </c>
       <c r="B348">
         <v>2</v>
@@ -3673,7 +3663,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>25488</v>
+        <v>70265</v>
       </c>
       <c r="B349">
         <v>2</v>
@@ -3681,7 +3671,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>15753</v>
+        <v>25839</v>
       </c>
       <c r="B350">
         <v>2</v>
@@ -3689,7 +3679,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>25168</v>
+        <v>73563</v>
       </c>
       <c r="B351">
         <v>2</v>
@@ -3697,7 +3687,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>73217</v>
+        <v>73352</v>
       </c>
       <c r="B352">
         <v>2</v>
@@ -3705,7 +3695,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>15806</v>
+        <v>73148</v>
       </c>
       <c r="B353">
         <v>2</v>
@@ -3713,7 +3703,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>76130</v>
+        <v>15755</v>
       </c>
       <c r="B354">
         <v>2</v>
@@ -3721,7 +3711,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>25785</v>
+        <v>13052</v>
       </c>
       <c r="B355">
         <v>2</v>
@@ -3729,7 +3719,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>73770</v>
+        <v>25745</v>
       </c>
       <c r="B356">
         <v>2</v>
@@ -3737,7 +3727,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>20032</v>
+        <v>68773</v>
       </c>
       <c r="B357">
         <v>2</v>
@@ -3745,7 +3735,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>5490</v>
+        <v>25320</v>
       </c>
       <c r="B358">
         <v>2</v>
@@ -3753,7 +3743,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>97001</v>
+        <v>76250</v>
       </c>
       <c r="B359">
         <v>2</v>
@@ -3761,7 +3751,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>73200</v>
+        <v>13430</v>
       </c>
       <c r="B360">
         <v>2</v>
@@ -3769,7 +3759,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>52786</v>
+        <v>54405</v>
       </c>
       <c r="B361">
         <v>2</v>
@@ -3777,7 +3767,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>54128</v>
+        <v>15516</v>
       </c>
       <c r="B362">
         <v>2</v>
@@ -3785,7 +3775,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>50573</v>
+        <v>70400</v>
       </c>
       <c r="B363">
         <v>2</v>
@@ -3793,7 +3783,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>15491</v>
+        <v>44378</v>
       </c>
       <c r="B364">
         <v>2</v>
@@ -3801,7 +3791,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>68385</v>
+        <v>54250</v>
       </c>
       <c r="B365">
         <v>2</v>
@@ -3809,7 +3799,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>52323</v>
+        <v>68377</v>
       </c>
       <c r="B366">
         <v>2</v>
@@ -3817,7 +3807,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>17867</v>
+        <v>73861</v>
       </c>
       <c r="B367">
         <v>2</v>
@@ -3825,7 +3815,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>44650</v>
+        <v>20614</v>
       </c>
       <c r="B368">
         <v>2</v>
@@ -3833,7 +3823,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>25260</v>
+        <v>13140</v>
       </c>
       <c r="B369">
         <v>2</v>
@@ -3841,7 +3831,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>52835</v>
+        <v>73275</v>
       </c>
       <c r="B370">
         <v>2</v>
@@ -3849,7 +3839,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>8296</v>
+        <v>70717</v>
       </c>
       <c r="B371">
         <v>2</v>
@@ -3857,7 +3847,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>86568</v>
+        <v>25430</v>
       </c>
       <c r="B372">
         <v>2</v>
@@ -3865,7 +3855,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>15572</v>
+        <v>44279</v>
       </c>
       <c r="B373">
         <v>2</v>
@@ -3873,7 +3863,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>44874</v>
+        <v>66383</v>
       </c>
       <c r="B374">
         <v>2</v>
@@ -3881,7 +3871,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>86001</v>
+        <v>17541</v>
       </c>
       <c r="B375">
         <v>2</v>
@@ -3889,7 +3879,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>66682</v>
+        <v>25326</v>
       </c>
       <c r="B376">
         <v>2</v>
@@ -3897,7 +3887,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>47058</v>
+        <v>13836</v>
       </c>
       <c r="B377">
         <v>2</v>
@@ -3905,7 +3895,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>73319</v>
+        <v>68689</v>
       </c>
       <c r="B378">
         <v>2</v>
@@ -3913,7 +3903,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>19743</v>
+        <v>73585</v>
       </c>
       <c r="B379">
         <v>2</v>
@@ -3921,7 +3911,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>17653</v>
+        <v>15693</v>
       </c>
       <c r="B380">
         <v>2</v>
@@ -3929,7 +3919,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>68502</v>
+        <v>19845</v>
       </c>
       <c r="B381">
         <v>2</v>
@@ -3937,7 +3927,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>23466</v>
+        <v>68464</v>
       </c>
       <c r="B382">
         <v>2</v>
@@ -3945,7 +3935,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>76318</v>
+        <v>25653</v>
       </c>
       <c r="B383">
         <v>2</v>
@@ -3953,7 +3943,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>52612</v>
+        <v>15531</v>
       </c>
       <c r="B384">
         <v>2</v>
@@ -3961,7 +3951,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>17380</v>
+        <v>15776</v>
       </c>
       <c r="B385">
         <v>2</v>
@@ -3969,7 +3959,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>94001</v>
+        <v>44001</v>
       </c>
       <c r="B386">
         <v>2</v>
@@ -3977,7 +3967,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>17614</v>
+        <v>85325</v>
       </c>
       <c r="B387">
         <v>2</v>
@@ -3985,7 +3975,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>13657</v>
+        <v>63548</v>
       </c>
       <c r="B388">
         <v>2</v>
@@ -3993,7 +3983,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>73870</v>
+        <v>68190</v>
       </c>
       <c r="B389">
         <v>2</v>
@@ -4001,7 +3991,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>73678</v>
+        <v>68418</v>
       </c>
       <c r="B390">
         <v>2</v>
@@ -4009,7 +3999,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>73226</v>
+        <v>54720</v>
       </c>
       <c r="B391">
         <v>2</v>
@@ -4017,2479 +4007,2479 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>68092</v>
+        <v>73168</v>
       </c>
       <c r="B392">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>44090</v>
+        <v>85263</v>
       </c>
       <c r="B393">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>52083</v>
+        <v>17662</v>
       </c>
       <c r="B394">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>52287</v>
+        <v>15835</v>
       </c>
       <c r="B395">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>47692</v>
+        <v>52240</v>
       </c>
       <c r="B396">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>15542</v>
+        <v>25488</v>
       </c>
       <c r="B397">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>68318</v>
+        <v>68217</v>
       </c>
       <c r="B398">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>47189</v>
+        <v>15753</v>
       </c>
       <c r="B399">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>63302</v>
+        <v>25168</v>
       </c>
       <c r="B400">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>25871</v>
+        <v>73217</v>
       </c>
       <c r="B401">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>18592</v>
+        <v>15806</v>
       </c>
       <c r="B402">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>68320</v>
+        <v>76130</v>
       </c>
       <c r="B403">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>47798</v>
+        <v>25785</v>
       </c>
       <c r="B404">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>13244</v>
+        <v>73770</v>
       </c>
       <c r="B405">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>5664</v>
+        <v>20032</v>
       </c>
       <c r="B406">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>76275</v>
+        <v>5490</v>
       </c>
       <c r="B407">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>13838</v>
+        <v>97001</v>
       </c>
       <c r="B408">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>17174</v>
+        <v>15189</v>
       </c>
       <c r="B409">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>54871</v>
+        <v>73200</v>
       </c>
       <c r="B410">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>52885</v>
+        <v>52786</v>
       </c>
       <c r="B411">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>76863</v>
+        <v>54128</v>
       </c>
       <c r="B412">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>41548</v>
+        <v>50573</v>
       </c>
       <c r="B413">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>68209</v>
+        <v>15491</v>
       </c>
       <c r="B414">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>47707</v>
+        <v>68385</v>
       </c>
       <c r="B415">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>73547</v>
+        <v>13655</v>
       </c>
       <c r="B416">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>19622</v>
+        <v>52323</v>
       </c>
       <c r="B417">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>41807</v>
+        <v>17867</v>
       </c>
       <c r="B418">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>25743</v>
+        <v>44650</v>
       </c>
       <c r="B419">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>52411</v>
+        <v>25260</v>
       </c>
       <c r="B420">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>68235</v>
+        <v>52835</v>
       </c>
       <c r="B421">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>19573</v>
+        <v>8296</v>
       </c>
       <c r="B422">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>50689</v>
+        <v>68397</v>
       </c>
       <c r="B423">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>73411</v>
+        <v>86568</v>
       </c>
       <c r="B424">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>25288</v>
+        <v>15572</v>
       </c>
       <c r="B425">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>5250</v>
+        <v>15244</v>
       </c>
       <c r="B426">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>25524</v>
+        <v>44874</v>
       </c>
       <c r="B427">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>68121</v>
+        <v>86001</v>
       </c>
       <c r="B428">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>15442</v>
+        <v>66682</v>
       </c>
       <c r="B429">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>19455</v>
+        <v>47058</v>
       </c>
       <c r="B430">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>20011</v>
+        <v>73319</v>
       </c>
       <c r="B431">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>17877</v>
+        <v>19743</v>
       </c>
       <c r="B432">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>13688</v>
+        <v>41013</v>
       </c>
       <c r="B433">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>68162</v>
+        <v>19809</v>
       </c>
       <c r="B434">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>66594</v>
+        <v>17653</v>
       </c>
       <c r="B435">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>13042</v>
+        <v>68502</v>
       </c>
       <c r="B436">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>13683</v>
+        <v>23466</v>
       </c>
       <c r="B437">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>25572</v>
+        <v>76318</v>
       </c>
       <c r="B438">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>70678</v>
+        <v>52612</v>
       </c>
       <c r="B439">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>41359</v>
+        <v>17380</v>
       </c>
       <c r="B440">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>23807</v>
+        <v>94001</v>
       </c>
       <c r="B441">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>25040</v>
+        <v>17614</v>
       </c>
       <c r="B442">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>5847</v>
+        <v>13657</v>
       </c>
       <c r="B443">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>13433</v>
+        <v>73870</v>
       </c>
       <c r="B444">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>52560</v>
+        <v>73678</v>
       </c>
       <c r="B445">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>25322</v>
+        <v>68211</v>
       </c>
       <c r="B446">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>68575</v>
+        <v>73226</v>
       </c>
       <c r="B447">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>25486</v>
+        <v>68092</v>
       </c>
       <c r="B448">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>68720</v>
+        <v>44090</v>
       </c>
       <c r="B449">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>70235</v>
+        <v>52083</v>
       </c>
       <c r="B450">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>17272</v>
+        <v>52287</v>
       </c>
       <c r="B451">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>8372</v>
+        <v>47692</v>
       </c>
       <c r="B452">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>15507</v>
+        <v>15542</v>
       </c>
       <c r="B453">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>18094</v>
+        <v>68318</v>
       </c>
       <c r="B454">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>73283</v>
+        <v>47189</v>
       </c>
       <c r="B455">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>5147</v>
+        <v>63302</v>
       </c>
       <c r="B456">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>8433</v>
+        <v>25871</v>
       </c>
       <c r="B457">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>86865</v>
+        <v>18592</v>
       </c>
       <c r="B458">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>63272</v>
+        <v>68320</v>
       </c>
       <c r="B459">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>54206</v>
+        <v>47798</v>
       </c>
       <c r="B460">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>47161</v>
+        <v>68745</v>
       </c>
       <c r="B461">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>23300</v>
+        <v>13244</v>
       </c>
       <c r="B462">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>47053</v>
+        <v>68573</v>
       </c>
       <c r="B463">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>54172</v>
+        <v>5664</v>
       </c>
       <c r="B464">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>5895</v>
+        <v>76275</v>
       </c>
       <c r="B465">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>25815</v>
+        <v>68524</v>
       </c>
       <c r="B466">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>76100</v>
+        <v>13838</v>
       </c>
       <c r="B467">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>73873</v>
+        <v>17174</v>
       </c>
       <c r="B468">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>44430</v>
+        <v>54871</v>
       </c>
       <c r="B469">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>41885</v>
+        <v>52885</v>
       </c>
       <c r="B470">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>25793</v>
+        <v>76863</v>
       </c>
       <c r="B471">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>27361</v>
+        <v>41548</v>
       </c>
       <c r="B472">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>5042</v>
+        <v>68209</v>
       </c>
       <c r="B473">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>85250</v>
+        <v>47707</v>
       </c>
       <c r="B474">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>76243</v>
+        <v>73547</v>
       </c>
       <c r="B475">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>70204</v>
+        <v>19622</v>
       </c>
       <c r="B476">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>20060</v>
+        <v>15518</v>
       </c>
       <c r="B477">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>25120</v>
+        <v>41807</v>
       </c>
       <c r="B478">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>41615</v>
+        <v>25743</v>
       </c>
       <c r="B479">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>25645</v>
+        <v>52411</v>
       </c>
       <c r="B480">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>47555</v>
+        <v>68235</v>
       </c>
       <c r="B481">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>63690</v>
+        <v>19573</v>
       </c>
       <c r="B482">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>19807</v>
+        <v>50689</v>
       </c>
       <c r="B483">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>8832</v>
+        <v>73411</v>
       </c>
       <c r="B484">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>68522</v>
+        <v>25288</v>
       </c>
       <c r="B485">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>20383</v>
+        <v>41530</v>
       </c>
       <c r="B486">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>23162</v>
+        <v>5250</v>
       </c>
       <c r="B487">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>17042</v>
+        <v>25524</v>
       </c>
       <c r="B488">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>73555</v>
+        <v>68121</v>
       </c>
       <c r="B489">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>25086</v>
+        <v>15442</v>
       </c>
       <c r="B490">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>8141</v>
+        <v>19455</v>
       </c>
       <c r="B491">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>5400</v>
+        <v>15180</v>
       </c>
       <c r="B492">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>25777</v>
+        <v>20011</v>
       </c>
       <c r="B493">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>66318</v>
+        <v>52435</v>
       </c>
       <c r="B494">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>15494</v>
+        <v>17877</v>
       </c>
       <c r="B495">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>68147</v>
+        <v>13688</v>
       </c>
       <c r="B496">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>25053</v>
+        <v>68162</v>
       </c>
       <c r="B497">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>54418</v>
+        <v>66594</v>
       </c>
       <c r="B498">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>25335</v>
+        <v>13810</v>
       </c>
       <c r="B499">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>5264</v>
+        <v>13042</v>
       </c>
       <c r="B500">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>15109</v>
+        <v>13683</v>
       </c>
       <c r="B501">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>15816</v>
+        <v>15425</v>
       </c>
       <c r="B502">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>76126</v>
+        <v>25572</v>
       </c>
       <c r="B503">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504">
-        <v>25612</v>
+        <v>15810</v>
       </c>
       <c r="B504">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505">
-        <v>17442</v>
+        <v>70678</v>
       </c>
       <c r="B505">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>66400</v>
+        <v>41359</v>
       </c>
       <c r="B506">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507">
-        <v>19693</v>
+        <v>23807</v>
       </c>
       <c r="B507">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>66456</v>
+        <v>25040</v>
       </c>
       <c r="B508">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>52565</v>
+        <v>5847</v>
       </c>
       <c r="B509">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>44110</v>
+        <v>13433</v>
       </c>
       <c r="B510">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>19821</v>
+        <v>52560</v>
       </c>
       <c r="B511">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512">
-        <v>5030</v>
+        <v>25322</v>
       </c>
       <c r="B512">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>68368</v>
+        <v>68575</v>
       </c>
       <c r="B513">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514">
-        <v>19212</v>
+        <v>25898</v>
       </c>
       <c r="B514">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515">
-        <v>66088</v>
+        <v>25486</v>
       </c>
       <c r="B515">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516">
-        <v>52317</v>
+        <v>68720</v>
       </c>
       <c r="B516">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517">
-        <v>73461</v>
+        <v>68344</v>
       </c>
       <c r="B517">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>19517</v>
+        <v>70235</v>
       </c>
       <c r="B518">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>63594</v>
+        <v>17272</v>
       </c>
       <c r="B519">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>19318</v>
+        <v>8372</v>
       </c>
       <c r="B520">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>27787</v>
+        <v>25407</v>
       </c>
       <c r="B521">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522">
-        <v>52506</v>
+        <v>15507</v>
       </c>
       <c r="B522">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>86885</v>
+        <v>18094</v>
       </c>
       <c r="B523">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524">
-        <v>5368</v>
+        <v>73283</v>
       </c>
       <c r="B524">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525">
-        <v>41524</v>
+        <v>25299</v>
       </c>
       <c r="B525">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526">
-        <v>41668</v>
+        <v>5147</v>
       </c>
       <c r="B526">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527">
-        <v>19050</v>
+        <v>8433</v>
       </c>
       <c r="B527">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528">
-        <v>17088</v>
+        <v>25293</v>
       </c>
       <c r="B528">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529">
-        <v>68169</v>
+        <v>86865</v>
       </c>
       <c r="B529">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530">
-        <v>15047</v>
+        <v>63272</v>
       </c>
       <c r="B530">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531">
-        <v>5885</v>
+        <v>54206</v>
       </c>
       <c r="B531">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532">
-        <v>54223</v>
+        <v>47161</v>
       </c>
       <c r="B532">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>73236</v>
+        <v>23300</v>
       </c>
       <c r="B533">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>25596</v>
+        <v>47053</v>
       </c>
       <c r="B534">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>68549</v>
+        <v>54172</v>
       </c>
       <c r="B535">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536">
-        <v>68271</v>
+        <v>15172</v>
       </c>
       <c r="B536">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537">
-        <v>8685</v>
+        <v>5895</v>
       </c>
       <c r="B537">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538">
-        <v>52250</v>
+        <v>25815</v>
       </c>
       <c r="B538">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539">
-        <v>76233</v>
+        <v>76100</v>
       </c>
       <c r="B539">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540">
-        <v>41026</v>
+        <v>73873</v>
       </c>
       <c r="B540">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541">
-        <v>5315</v>
+        <v>44430</v>
       </c>
       <c r="B541">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542">
-        <v>19110</v>
+        <v>15820</v>
       </c>
       <c r="B542">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543">
-        <v>44035</v>
+        <v>41885</v>
       </c>
       <c r="B543">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>19142</v>
+        <v>25793</v>
       </c>
       <c r="B544">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545">
-        <v>76736</v>
+        <v>15879</v>
       </c>
       <c r="B545">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546">
-        <v>86760</v>
+        <v>27361</v>
       </c>
       <c r="B546">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547">
-        <v>13268</v>
+        <v>5042</v>
       </c>
       <c r="B547">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548">
-        <v>47318</v>
+        <v>85250</v>
       </c>
       <c r="B548">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549">
-        <v>70820</v>
+        <v>76243</v>
       </c>
       <c r="B549">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550">
-        <v>66572</v>
+        <v>70204</v>
       </c>
       <c r="B550">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551">
-        <v>13549</v>
+        <v>18256</v>
       </c>
       <c r="B551">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552">
-        <v>68425</v>
+        <v>20060</v>
       </c>
       <c r="B552">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553">
-        <v>5736</v>
+        <v>25120</v>
       </c>
       <c r="B553">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554">
-        <v>76246</v>
+        <v>41615</v>
       </c>
       <c r="B554">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555">
-        <v>54003</v>
+        <v>18610</v>
       </c>
       <c r="B555">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556">
-        <v>5101</v>
+        <v>25645</v>
       </c>
       <c r="B556">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557">
-        <v>25001</v>
+        <v>47555</v>
       </c>
       <c r="B557">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558">
-        <v>25807</v>
+        <v>63690</v>
       </c>
       <c r="B558">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559">
-        <v>41357</v>
+        <v>19807</v>
       </c>
       <c r="B559">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560">
-        <v>54670</v>
+        <v>25372</v>
       </c>
       <c r="B560">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561">
-        <v>25851</v>
+        <v>25867</v>
       </c>
       <c r="B561">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562">
-        <v>13647</v>
+        <v>8832</v>
       </c>
       <c r="B562">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563">
-        <v>54239</v>
+        <v>68522</v>
       </c>
       <c r="B563">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564">
-        <v>19548</v>
+        <v>20383</v>
       </c>
       <c r="B564">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565">
-        <v>25805</v>
+        <v>23162</v>
       </c>
       <c r="B565">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566">
-        <v>8638</v>
+        <v>17042</v>
       </c>
       <c r="B566">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567">
-        <v>25718</v>
+        <v>73555</v>
       </c>
       <c r="B567">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568">
-        <v>70221</v>
+        <v>25086</v>
       </c>
       <c r="B568">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569">
-        <v>20013</v>
+        <v>95015</v>
       </c>
       <c r="B569">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570">
-        <v>70771</v>
+        <v>8141</v>
       </c>
       <c r="B570">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571">
-        <v>17524</v>
+        <v>15332</v>
       </c>
       <c r="B571">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572">
-        <v>15204</v>
+        <v>5400</v>
       </c>
       <c r="B572">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573">
-        <v>13744</v>
+        <v>25777</v>
       </c>
       <c r="B573">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574">
-        <v>13248</v>
+        <v>66318</v>
       </c>
       <c r="B574">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575">
-        <v>86320</v>
+        <v>15494</v>
       </c>
       <c r="B575">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576">
-        <v>5591</v>
+        <v>68147</v>
       </c>
       <c r="B576">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577">
-        <v>15325</v>
+        <v>15224</v>
       </c>
       <c r="B577">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578">
-        <v>17665</v>
+        <v>25053</v>
       </c>
       <c r="B578">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579">
-        <v>76036</v>
+        <v>54418</v>
       </c>
       <c r="B579">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580">
-        <v>5237</v>
+        <v>25335</v>
       </c>
       <c r="B580">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581">
-        <v>52720</v>
+        <v>5264</v>
       </c>
       <c r="B581">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582">
-        <v>15720</v>
+        <v>27660</v>
       </c>
       <c r="B582">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583">
-        <v>76828</v>
+        <v>15109</v>
       </c>
       <c r="B583">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584">
-        <v>54599</v>
+        <v>15816</v>
       </c>
       <c r="B584">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585">
-        <v>70215</v>
+        <v>76126</v>
       </c>
       <c r="B585">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586">
-        <v>23417</v>
+        <v>25612</v>
       </c>
       <c r="B586">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587">
-        <v>41306</v>
+        <v>17442</v>
       </c>
       <c r="B587">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588">
-        <v>25823</v>
+        <v>66400</v>
       </c>
       <c r="B588">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589">
-        <v>63130</v>
+        <v>19693</v>
       </c>
       <c r="B589">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590">
-        <v>86755</v>
+        <v>66456</v>
       </c>
       <c r="B590">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591">
-        <v>66687</v>
+        <v>52565</v>
       </c>
       <c r="B591">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592">
-        <v>54109</v>
+        <v>44110</v>
       </c>
       <c r="B592">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593">
-        <v>54520</v>
+        <v>19821</v>
       </c>
       <c r="B593">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594">
-        <v>5172</v>
+        <v>5030</v>
       </c>
       <c r="B594">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595">
-        <v>68264</v>
+        <v>68368</v>
       </c>
       <c r="B595">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596">
-        <v>68673</v>
+        <v>13030</v>
       </c>
       <c r="B596">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597">
-        <v>25489</v>
+        <v>19212</v>
       </c>
       <c r="B597">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598">
-        <v>8606</v>
+        <v>66088</v>
       </c>
       <c r="B598">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599">
-        <v>5579</v>
+        <v>52317</v>
       </c>
       <c r="B599">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600">
-        <v>13667</v>
+        <v>73461</v>
       </c>
       <c r="B600">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601">
-        <v>5887</v>
+        <v>19517</v>
       </c>
       <c r="B601">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602">
-        <v>25154</v>
+        <v>15272</v>
       </c>
       <c r="B602">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603">
-        <v>5837</v>
+        <v>63594</v>
       </c>
       <c r="B603">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604">
-        <v>5819</v>
+        <v>19318</v>
       </c>
       <c r="B604">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605">
-        <v>73483</v>
+        <v>15774</v>
       </c>
       <c r="B605">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606">
-        <v>54051</v>
+        <v>27787</v>
       </c>
       <c r="B606">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607">
-        <v>5031</v>
+        <v>52418</v>
       </c>
       <c r="B607">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608">
-        <v>13160</v>
+        <v>52506</v>
       </c>
       <c r="B608">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609">
-        <v>19022</v>
+        <v>86885</v>
       </c>
       <c r="B609">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610">
-        <v>25224</v>
+        <v>15740</v>
       </c>
       <c r="B610">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611">
-        <v>15276</v>
+        <v>5368</v>
       </c>
       <c r="B611">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612">
-        <v>73349</v>
+        <v>41524</v>
       </c>
       <c r="B612">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613">
-        <v>54245</v>
+        <v>15778</v>
       </c>
       <c r="B613">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614">
-        <v>63190</v>
+        <v>41668</v>
       </c>
       <c r="B614">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615">
-        <v>44560</v>
+        <v>19050</v>
       </c>
       <c r="B615">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616">
-        <v>76670</v>
+        <v>15762</v>
       </c>
       <c r="B616">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617">
-        <v>19397</v>
+        <v>15212</v>
       </c>
       <c r="B617">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618">
-        <v>13580</v>
+        <v>17088</v>
       </c>
       <c r="B618">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619">
-        <v>54800</v>
+        <v>68169</v>
       </c>
       <c r="B619">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620">
-        <v>15511</v>
+        <v>15047</v>
       </c>
       <c r="B620">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621">
-        <v>5154</v>
+        <v>5885</v>
       </c>
       <c r="B621">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622">
-        <v>25740</v>
+        <v>54223</v>
       </c>
       <c r="B622">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623">
-        <v>76377</v>
+        <v>73236</v>
       </c>
       <c r="B623">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624">
-        <v>73152</v>
+        <v>25518</v>
       </c>
       <c r="B624">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625">
-        <v>5234</v>
+        <v>25596</v>
       </c>
       <c r="B625">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626">
-        <v>25436</v>
+        <v>52224</v>
       </c>
       <c r="B626">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627">
-        <v>63401</v>
+        <v>68549</v>
       </c>
       <c r="B627">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628">
-        <v>41799</v>
+        <v>68271</v>
       </c>
       <c r="B628">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629">
-        <v>63470</v>
+        <v>19780</v>
       </c>
       <c r="B629">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630">
-        <v>8634</v>
+        <v>8685</v>
       </c>
       <c r="B630">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631">
-        <v>23660</v>
+        <v>52250</v>
       </c>
       <c r="B631">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632">
-        <v>23574</v>
+        <v>76233</v>
       </c>
       <c r="B632">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633">
-        <v>47551</v>
+        <v>41026</v>
       </c>
       <c r="B633">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634">
-        <v>5679</v>
+        <v>5315</v>
       </c>
       <c r="B634">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635">
-        <v>50245</v>
+        <v>19110</v>
       </c>
       <c r="B635">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636">
-        <v>44847</v>
+        <v>13062</v>
       </c>
       <c r="B636">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637">
-        <v>23555</v>
+        <v>44035</v>
       </c>
       <c r="B637">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638">
-        <v>5107</v>
+        <v>19142</v>
       </c>
       <c r="B638">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639">
-        <v>13650</v>
+        <v>13600</v>
       </c>
       <c r="B639">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640">
-        <v>5364</v>
+        <v>41676</v>
       </c>
       <c r="B640">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641">
-        <v>5390</v>
+        <v>41770</v>
       </c>
       <c r="B641">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642">
-        <v>54344</v>
+        <v>76736</v>
       </c>
       <c r="B642">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643">
-        <v>5656</v>
+        <v>86760</v>
       </c>
       <c r="B643">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644">
-        <v>19473</v>
+        <v>68152</v>
       </c>
       <c r="B644">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645">
-        <v>5686</v>
+        <v>13268</v>
       </c>
       <c r="B645">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646">
-        <v>73854</v>
+        <v>47318</v>
       </c>
       <c r="B646">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647">
-        <v>5034</v>
+        <v>70820</v>
       </c>
       <c r="B647">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648">
-        <v>8560</v>
+        <v>66572</v>
       </c>
       <c r="B648">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649">
-        <v>19130</v>
+        <v>13549</v>
       </c>
       <c r="B649">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650">
-        <v>70508</v>
+        <v>68425</v>
       </c>
       <c r="B650">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651">
-        <v>5854</v>
+        <v>5736</v>
       </c>
       <c r="B651">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652">
-        <v>19137</v>
+        <v>76246</v>
       </c>
       <c r="B652">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653">
-        <v>27205</v>
+        <v>54003</v>
       </c>
       <c r="B653">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654">
-        <v>23500</v>
+        <v>5101</v>
       </c>
       <c r="B654">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655">
-        <v>91001</v>
+        <v>15761</v>
       </c>
       <c r="B655">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656">
-        <v>41206</v>
+        <v>25506</v>
       </c>
       <c r="B656">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657">
-        <v>17388</v>
+        <v>25001</v>
       </c>
       <c r="B657">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658">
-        <v>19256</v>
+        <v>25807</v>
       </c>
       <c r="B658">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659">
-        <v>8078</v>
+        <v>41357</v>
       </c>
       <c r="B659">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660">
-        <v>23678</v>
+        <v>54670</v>
       </c>
       <c r="B660">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661">
-        <v>76563</v>
+        <v>25851</v>
       </c>
       <c r="B661">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662">
-        <v>25599</v>
+        <v>13647</v>
       </c>
       <c r="B662">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663">
-        <v>23675</v>
+        <v>25779</v>
       </c>
       <c r="B663">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664">
-        <v>23419</v>
+        <v>18860</v>
       </c>
       <c r="B664">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665">
-        <v>54125</v>
+        <v>15223</v>
       </c>
       <c r="B665">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666">
-        <v>52210</v>
+        <v>54239</v>
       </c>
       <c r="B666">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667">
-        <v>54743</v>
+        <v>19548</v>
       </c>
       <c r="B667">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668">
-        <v>5541</v>
+        <v>25805</v>
       </c>
       <c r="B668">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669">
-        <v>5313</v>
+        <v>8638</v>
       </c>
       <c r="B669">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670">
-        <v>70473</v>
+        <v>25718</v>
       </c>
       <c r="B670">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671">
-        <v>5321</v>
+        <v>13620</v>
       </c>
       <c r="B671">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A672">
-        <v>5093</v>
+        <v>70221</v>
       </c>
       <c r="B672">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673">
-        <v>5150</v>
+        <v>20013</v>
       </c>
       <c r="B673">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674">
-        <v>5480</v>
+        <v>68245</v>
       </c>
       <c r="B674">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675">
-        <v>8520</v>
+        <v>70771</v>
       </c>
       <c r="B675">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676">
-        <v>5856</v>
+        <v>17524</v>
       </c>
       <c r="B676">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677">
-        <v>5858</v>
+        <v>15090</v>
       </c>
       <c r="B677">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678">
-        <v>19392</v>
+        <v>15204</v>
       </c>
       <c r="B678">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679">
-        <v>70708</v>
+        <v>18785</v>
       </c>
       <c r="B679">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680">
-        <v>5670</v>
+        <v>13744</v>
       </c>
       <c r="B680">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681">
-        <v>50226</v>
+        <v>13248</v>
       </c>
       <c r="B681">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682">
-        <v>5483</v>
+        <v>54480</v>
       </c>
       <c r="B682">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683">
-        <v>15104</v>
+        <v>86320</v>
       </c>
       <c r="B683">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684">
-        <v>5138</v>
+        <v>27245</v>
       </c>
       <c r="B684">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685">
-        <v>5642</v>
+        <v>5591</v>
       </c>
       <c r="B685">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686">
-        <v>5425</v>
+        <v>15325</v>
       </c>
       <c r="B686">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687">
-        <v>70124</v>
+        <v>17665</v>
       </c>
       <c r="B687">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688">
-        <v>41349</v>
+        <v>15476</v>
       </c>
       <c r="B688">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689">
-        <v>5893</v>
+        <v>76036</v>
       </c>
       <c r="B689">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690">
-        <v>63212</v>
+        <v>5237</v>
       </c>
       <c r="B690">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691">
-        <v>20621</v>
+        <v>52720</v>
       </c>
       <c r="B691">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A692">
-        <v>8421</v>
+        <v>15720</v>
       </c>
       <c r="B692">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693">
-        <v>70742</v>
+        <v>76828</v>
       </c>
       <c r="B693">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694">
-        <v>85400</v>
+        <v>54599</v>
       </c>
       <c r="B694">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695">
-        <v>5674</v>
+        <v>70215</v>
       </c>
       <c r="B695">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696">
-        <v>54347</v>
+        <v>52051</v>
       </c>
       <c r="B696">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697">
-        <v>52354</v>
+        <v>23417</v>
       </c>
       <c r="B697">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A698">
-        <v>5659</v>
+        <v>68160</v>
       </c>
       <c r="B698">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A699">
-        <v>5051</v>
+        <v>41306</v>
       </c>
       <c r="B699">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700">
-        <v>23570</v>
+        <v>25823</v>
       </c>
       <c r="B700">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701">
-        <v>68176</v>
+        <v>63130</v>
       </c>
       <c r="B701">
         <v>3</v>
@@ -6497,7 +6487,7 @@
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A702">
-        <v>13212</v>
+        <v>86755</v>
       </c>
       <c r="B702">
         <v>3</v>
@@ -6505,7 +6495,7 @@
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A703">
-        <v>5649</v>
+        <v>66687</v>
       </c>
       <c r="B703">
         <v>3</v>
@@ -6513,7 +6503,7 @@
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A704">
-        <v>13074</v>
+        <v>54109</v>
       </c>
       <c r="B704">
         <v>3</v>
@@ -6521,7 +6511,7 @@
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A705">
-        <v>23855</v>
+        <v>54520</v>
       </c>
       <c r="B705">
         <v>3</v>
@@ -6529,7 +6519,7 @@
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A706">
-        <v>54680</v>
+        <v>5172</v>
       </c>
       <c r="B706">
         <v>3</v>
@@ -6537,7 +6527,7 @@
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707">
-        <v>23068</v>
+        <v>68264</v>
       </c>
       <c r="B707">
         <v>3</v>
@@ -6545,7 +6535,7 @@
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A708">
-        <v>23079</v>
+        <v>68673</v>
       </c>
       <c r="B708">
         <v>3</v>
@@ -6553,7 +6543,7 @@
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709">
-        <v>5055</v>
+        <v>25489</v>
       </c>
       <c r="B709">
         <v>3</v>
@@ -6561,7 +6551,7 @@
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710">
-        <v>66075</v>
+        <v>8606</v>
       </c>
       <c r="B710">
         <v>3</v>
@@ -6569,7 +6559,7 @@
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A711">
-        <v>5690</v>
+        <v>41791</v>
       </c>
       <c r="B711">
         <v>3</v>
@@ -6577,7 +6567,7 @@
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712">
-        <v>23189</v>
+        <v>5579</v>
       </c>
       <c r="B712">
         <v>3</v>
@@ -6585,7 +6575,7 @@
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A713">
-        <v>5282</v>
+        <v>15500</v>
       </c>
       <c r="B713">
         <v>3</v>
@@ -6593,7 +6583,7 @@
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A714">
-        <v>52381</v>
+        <v>25781</v>
       </c>
       <c r="B714">
         <v>3</v>
@@ -6601,7 +6591,7 @@
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A715">
-        <v>5021</v>
+        <v>13667</v>
       </c>
       <c r="B715">
         <v>3</v>
@@ -6609,7 +6599,7 @@
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A716">
-        <v>15676</v>
+        <v>5887</v>
       </c>
       <c r="B716">
         <v>3</v>
@@ -6617,7 +6607,7 @@
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717">
-        <v>23686</v>
+        <v>25154</v>
       </c>
       <c r="B717">
         <v>3</v>
@@ -6625,7 +6615,7 @@
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A718">
-        <v>5756</v>
+        <v>5837</v>
       </c>
       <c r="B718">
         <v>3</v>
@@ -6633,7 +6623,7 @@
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A719">
-        <v>5361</v>
+        <v>5819</v>
       </c>
       <c r="B719">
         <v>3</v>
@@ -6641,7 +6631,7 @@
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A720">
-        <v>66440</v>
+        <v>73483</v>
       </c>
       <c r="B720">
         <v>3</v>
@@ -6649,7 +6639,7 @@
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721">
-        <v>8558</v>
+        <v>54051</v>
       </c>
       <c r="B721">
         <v>3</v>
@@ -6657,7 +6647,7 @@
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A722">
-        <v>52480</v>
+        <v>5031</v>
       </c>
       <c r="B722">
         <v>3</v>
@@ -6665,7 +6655,7 @@
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A723">
-        <v>5890</v>
+        <v>13160</v>
       </c>
       <c r="B723">
         <v>3</v>
@@ -6673,7 +6663,7 @@
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A724">
-        <v>52788</v>
+        <v>19022</v>
       </c>
       <c r="B724">
         <v>3</v>
@@ -6681,7 +6671,7 @@
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A725">
-        <v>5790</v>
+        <v>25224</v>
       </c>
       <c r="B725">
         <v>3</v>
@@ -6689,7 +6679,7 @@
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A726">
-        <v>70702</v>
+        <v>15276</v>
       </c>
       <c r="B726">
         <v>3</v>
@@ -6697,7 +6687,7 @@
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A727">
-        <v>70823</v>
+        <v>73349</v>
       </c>
       <c r="B727">
         <v>3</v>
@@ -6705,7 +6695,7 @@
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A728">
-        <v>23670</v>
+        <v>54245</v>
       </c>
       <c r="B728">
         <v>3</v>
@@ -6713,7 +6703,7 @@
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A729">
-        <v>5125</v>
+        <v>63190</v>
       </c>
       <c r="B729">
         <v>3</v>
@@ -6721,7 +6711,7 @@
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A730">
-        <v>76054</v>
+        <v>25438</v>
       </c>
       <c r="B730">
         <v>3</v>
@@ -6729,7 +6719,7 @@
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A731">
-        <v>23350</v>
+        <v>44560</v>
       </c>
       <c r="B731">
         <v>3</v>
@@ -6737,7 +6727,7 @@
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A732">
-        <v>23182</v>
+        <v>76670</v>
       </c>
       <c r="B732">
         <v>3</v>
@@ -6745,7 +6735,7 @@
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A733">
-        <v>5647</v>
+        <v>19397</v>
       </c>
       <c r="B733">
         <v>3</v>
@@ -6753,7 +6743,7 @@
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A734">
-        <v>41518</v>
+        <v>13580</v>
       </c>
       <c r="B734">
         <v>3</v>
@@ -6761,7 +6751,7 @@
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A735">
-        <v>19785</v>
+        <v>54800</v>
       </c>
       <c r="B735">
         <v>3</v>
@@ -6769,7 +6759,7 @@
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A736">
-        <v>5197</v>
+        <v>15511</v>
       </c>
       <c r="B736">
         <v>3</v>
@@ -6777,7 +6767,7 @@
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A737">
-        <v>5113</v>
+        <v>5154</v>
       </c>
       <c r="B737">
         <v>3</v>
@@ -6785,7 +6775,7 @@
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A738">
-        <v>5353</v>
+        <v>25740</v>
       </c>
       <c r="B738">
         <v>3</v>
@@ -6793,7 +6783,7 @@
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A739">
-        <v>5667</v>
+        <v>76377</v>
       </c>
       <c r="B739">
         <v>3</v>
@@ -6801,7 +6791,7 @@
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A740">
-        <v>5038</v>
+        <v>73152</v>
       </c>
       <c r="B740">
         <v>3</v>
@@ -6809,7 +6799,7 @@
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A741">
-        <v>52352</v>
+        <v>5234</v>
       </c>
       <c r="B741">
         <v>3</v>
@@ -6817,7 +6807,7 @@
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A742">
-        <v>5190</v>
+        <v>25436</v>
       </c>
       <c r="B742">
         <v>3</v>
@@ -6825,7 +6815,7 @@
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743">
-        <v>23672</v>
+        <v>63401</v>
       </c>
       <c r="B743">
         <v>3</v>
@@ -6833,7 +6823,7 @@
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A744">
-        <v>17495</v>
+        <v>41799</v>
       </c>
       <c r="B744">
         <v>3</v>
@@ -6841,7 +6831,7 @@
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A745">
-        <v>5761</v>
+        <v>8436</v>
       </c>
       <c r="B745">
         <v>3</v>
@@ -6849,7 +6839,7 @@
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A746">
-        <v>85225</v>
+        <v>63470</v>
       </c>
       <c r="B746">
         <v>3</v>
@@ -6857,7 +6847,7 @@
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A747">
-        <v>5240</v>
+        <v>8634</v>
       </c>
       <c r="B747">
         <v>3</v>
@@ -6865,7 +6855,7 @@
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A748">
-        <v>19364</v>
+        <v>23660</v>
       </c>
       <c r="B748">
         <v>3</v>
@@ -6873,7 +6863,7 @@
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A749">
-        <v>5665</v>
+        <v>52405</v>
       </c>
       <c r="B749">
         <v>3</v>
@@ -6881,7 +6871,7 @@
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A750">
-        <v>5142</v>
+        <v>23574</v>
       </c>
       <c r="B750">
         <v>3</v>
@@ -6889,7 +6879,7 @@
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A751">
-        <v>5585</v>
+        <v>47551</v>
       </c>
       <c r="B751">
         <v>3</v>
@@ -6897,7 +6887,7 @@
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A752">
-        <v>5789</v>
+        <v>5679</v>
       </c>
       <c r="B752">
         <v>3</v>
@@ -6905,7 +6895,7 @@
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A753">
-        <v>5310</v>
+        <v>50245</v>
       </c>
       <c r="B753">
         <v>3</v>
@@ -6913,7 +6903,7 @@
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A754">
-        <v>5792</v>
+        <v>44847</v>
       </c>
       <c r="B754">
         <v>3</v>
@@ -6921,7 +6911,7 @@
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A755">
-        <v>5652</v>
+        <v>23555</v>
       </c>
       <c r="B755">
         <v>3</v>
@@ -6929,7 +6919,7 @@
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A756">
-        <v>66045</v>
+        <v>5107</v>
       </c>
       <c r="B756">
         <v>3</v>
@@ -6937,7 +6927,7 @@
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A757">
-        <v>5658</v>
+        <v>13650</v>
       </c>
       <c r="B757">
         <v>3</v>
@@ -6945,7 +6935,7 @@
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A758">
-        <v>5842</v>
+        <v>5364</v>
       </c>
       <c r="B758">
         <v>3</v>
@@ -6953,7 +6943,7 @@
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A759">
-        <v>85230</v>
+        <v>5390</v>
       </c>
       <c r="B759">
         <v>3</v>
@@ -6961,7 +6951,7 @@
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A760">
-        <v>5628</v>
+        <v>54344</v>
       </c>
       <c r="B760">
         <v>3</v>
@@ -6969,7 +6959,7 @@
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A761">
-        <v>5660</v>
+        <v>5656</v>
       </c>
       <c r="B761">
         <v>3</v>
@@ -6977,7 +6967,7 @@
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A762">
-        <v>5134</v>
+        <v>68322</v>
       </c>
       <c r="B762">
         <v>3</v>
@@ -6985,7 +6975,7 @@
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A763">
-        <v>5873</v>
+        <v>19473</v>
       </c>
       <c r="B763">
         <v>3</v>
@@ -6993,7 +6983,7 @@
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A764">
-        <v>19585</v>
+        <v>5686</v>
       </c>
       <c r="B764">
         <v>3</v>
@@ -7001,7 +6991,7 @@
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A765">
-        <v>5091</v>
+        <v>68468</v>
       </c>
       <c r="B765">
         <v>3</v>
@@ -7009,7 +6999,7 @@
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A766">
-        <v>50110</v>
+        <v>73854</v>
       </c>
       <c r="B766">
         <v>3</v>
@@ -7017,7 +7007,7 @@
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A767">
-        <v>27615</v>
+        <v>8849</v>
       </c>
       <c r="B767">
         <v>3</v>
@@ -7025,7 +7015,7 @@
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A768">
-        <v>5306</v>
+        <v>5034</v>
       </c>
       <c r="B768">
         <v>3</v>
@@ -7033,7 +7023,7 @@
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A769">
-        <v>68266</v>
+        <v>8560</v>
       </c>
       <c r="B769">
         <v>3</v>
@@ -7041,7 +7031,7 @@
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A770">
-        <v>5002</v>
+        <v>19130</v>
       </c>
       <c r="B770">
         <v>3</v>
@@ -7049,7 +7039,7 @@
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A771">
-        <v>19418</v>
+        <v>70508</v>
       </c>
       <c r="B771">
         <v>3</v>
@@ -7057,7 +7047,7 @@
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A772">
-        <v>5861</v>
+        <v>5854</v>
       </c>
       <c r="B772">
         <v>3</v>
@@ -7065,7 +7055,7 @@
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A773">
-        <v>17446</v>
+        <v>19137</v>
       </c>
       <c r="B773">
         <v>3</v>
@@ -7073,7 +7063,7 @@
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A774">
-        <v>8137</v>
+        <v>27205</v>
       </c>
       <c r="B774">
         <v>3</v>
@@ -7081,7 +7071,7 @@
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A775">
-        <v>70670</v>
+        <v>52696</v>
       </c>
       <c r="B775">
         <v>3</v>
@@ -7089,7 +7079,7 @@
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A776">
-        <v>5467</v>
+        <v>23500</v>
       </c>
       <c r="B776">
         <v>3</v>
@@ -7097,7 +7087,7 @@
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A777">
-        <v>70523</v>
+        <v>91001</v>
       </c>
       <c r="B777">
         <v>3</v>
@@ -7105,7 +7095,7 @@
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A778">
-        <v>5086</v>
+        <v>41206</v>
       </c>
       <c r="B778">
         <v>3</v>
@@ -7113,7 +7103,7 @@
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A779">
-        <v>5044</v>
+        <v>17388</v>
       </c>
       <c r="B779">
         <v>3</v>
@@ -7121,7 +7111,7 @@
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A780">
-        <v>23586</v>
+        <v>15763</v>
       </c>
       <c r="B780">
         <v>3</v>
@@ -7129,7 +7119,7 @@
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A781">
-        <v>5495</v>
+        <v>19256</v>
       </c>
       <c r="B781">
         <v>3</v>
@@ -7137,7 +7127,7 @@
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A782">
-        <v>5004</v>
+        <v>8078</v>
       </c>
       <c r="B782">
         <v>3</v>
@@ -7145,7 +7135,7 @@
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A783">
-        <v>19824</v>
+        <v>23678</v>
       </c>
       <c r="B783">
         <v>3</v>
@@ -7153,7 +7143,7 @@
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A784">
-        <v>5543</v>
+        <v>76563</v>
       </c>
       <c r="B784">
         <v>3</v>
@@ -7161,7 +7151,7 @@
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A785">
-        <v>5347</v>
+        <v>41797</v>
       </c>
       <c r="B785">
         <v>3</v>
@@ -7169,7 +7159,7 @@
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A786">
-        <v>5284</v>
+        <v>25599</v>
       </c>
       <c r="B786">
         <v>3</v>
@@ -7177,7 +7167,7 @@
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A787">
-        <v>23090</v>
+        <v>15696</v>
       </c>
       <c r="B787">
         <v>3</v>
@@ -7185,7 +7175,7 @@
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A788">
-        <v>5475</v>
+        <v>15296</v>
       </c>
       <c r="B788">
         <v>3</v>
@@ -7193,7 +7183,7 @@
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A789">
-        <v>5411</v>
+        <v>81591</v>
       </c>
       <c r="B789">
         <v>3</v>
@@ -7201,7 +7191,7 @@
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A790">
-        <v>23464</v>
+        <v>23675</v>
       </c>
       <c r="B790">
         <v>3</v>
@@ -7209,7 +7199,7 @@
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A791">
-        <v>5145</v>
+        <v>23419</v>
       </c>
       <c r="B791">
         <v>3</v>
@@ -7217,7 +7207,7 @@
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A792">
-        <v>70418</v>
+        <v>54125</v>
       </c>
       <c r="B792">
         <v>3</v>
@@ -7225,7 +7215,7 @@
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A793">
-        <v>54660</v>
+        <v>52210</v>
       </c>
       <c r="B793">
         <v>3</v>
@@ -7233,7 +7223,7 @@
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A794">
-        <v>5209</v>
+        <v>54743</v>
       </c>
       <c r="B794">
         <v>3</v>
@@ -7241,7 +7231,7 @@
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A795">
-        <v>13473</v>
+        <v>5541</v>
       </c>
       <c r="B795">
         <v>3</v>
@@ -7249,7 +7239,7 @@
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A796">
-        <v>5576</v>
+        <v>5313</v>
       </c>
       <c r="B796">
         <v>3</v>
@@ -7257,7 +7247,7 @@
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A797">
-        <v>54673</v>
+        <v>70473</v>
       </c>
       <c r="B797">
         <v>3</v>
@@ -7265,7 +7255,7 @@
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A798">
-        <v>54261</v>
+        <v>19760</v>
       </c>
       <c r="B798">
         <v>3</v>
@@ -7273,7 +7263,7 @@
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A799">
-        <v>5809</v>
+        <v>5321</v>
       </c>
       <c r="B799">
         <v>3</v>
@@ -7281,7 +7271,7 @@
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A800">
-        <v>5501</v>
+        <v>5093</v>
       </c>
       <c r="B800">
         <v>3</v>
@@ -7289,7 +7279,7 @@
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A801">
-        <v>5120</v>
+        <v>68013</v>
       </c>
       <c r="B801">
         <v>3</v>
@@ -7297,7 +7287,7 @@
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A802">
-        <v>5036</v>
+        <v>85015</v>
       </c>
       <c r="B802">
         <v>3</v>
@@ -7305,7 +7295,7 @@
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A803">
-        <v>5206</v>
+        <v>19701</v>
       </c>
       <c r="B803">
         <v>3</v>
@@ -7313,7 +7303,7 @@
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A804">
-        <v>70713</v>
+        <v>5150</v>
       </c>
       <c r="B804">
         <v>3</v>
@@ -7321,7 +7311,7 @@
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A805">
-        <v>68296</v>
+        <v>5480</v>
       </c>
       <c r="B805">
         <v>3</v>
@@ -7329,7 +7319,7 @@
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A806">
-        <v>5040</v>
+        <v>8520</v>
       </c>
       <c r="B806">
         <v>3</v>
@@ -7337,7 +7327,7 @@
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A807">
-        <v>27413</v>
+        <v>5856</v>
       </c>
       <c r="B807">
         <v>3</v>
@@ -7345,7 +7335,7 @@
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A808">
-        <v>19513</v>
+        <v>5858</v>
       </c>
       <c r="B808">
         <v>3</v>
@@ -7353,7 +7343,7 @@
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A809">
-        <v>54099</v>
+        <v>19392</v>
       </c>
       <c r="B809">
         <v>3</v>
@@ -7361,7 +7351,7 @@
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A810">
-        <v>99001</v>
+        <v>70708</v>
       </c>
       <c r="B810">
         <v>3</v>
@@ -7369,7 +7359,7 @@
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A811">
-        <v>8549</v>
+        <v>5670</v>
       </c>
       <c r="B811">
         <v>3</v>
@@ -7377,7 +7367,7 @@
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A812">
-        <v>73124</v>
+        <v>50226</v>
       </c>
       <c r="B812">
         <v>3</v>
@@ -7385,7 +7375,7 @@
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A813">
-        <v>81220</v>
+        <v>5483</v>
       </c>
       <c r="B813">
         <v>3</v>
@@ -7393,7 +7383,7 @@
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A814">
-        <v>23168</v>
+        <v>15104</v>
       </c>
       <c r="B814">
         <v>3</v>
@@ -7401,7 +7391,7 @@
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A815">
-        <v>50350</v>
+        <v>5138</v>
       </c>
       <c r="B815">
         <v>3</v>
@@ -7409,7 +7399,7 @@
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A816">
-        <v>27006</v>
+        <v>5642</v>
       </c>
       <c r="B816">
         <v>3</v>
@@ -7417,7 +7407,7 @@
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A817">
-        <v>27077</v>
+        <v>19533</v>
       </c>
       <c r="B817">
         <v>3</v>
@@ -7425,7 +7415,7 @@
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A818">
-        <v>27495</v>
+        <v>15187</v>
       </c>
       <c r="B818">
         <v>3</v>
@@ -7433,7 +7423,7 @@
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A819">
-        <v>54820</v>
+        <v>5425</v>
       </c>
       <c r="B819">
         <v>3</v>
@@ -7441,10 +7431,1898 @@
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A820">
+        <v>15533</v>
+      </c>
+      <c r="B820">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A821">
+        <v>70124</v>
+      </c>
+      <c r="B821">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A822">
+        <v>41349</v>
+      </c>
+      <c r="B822">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A823">
+        <v>5893</v>
+      </c>
+      <c r="B823">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A824">
+        <v>63212</v>
+      </c>
+      <c r="B824">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A825">
+        <v>20621</v>
+      </c>
+      <c r="B825">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A826">
+        <v>8421</v>
+      </c>
+      <c r="B826">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A827">
+        <v>70742</v>
+      </c>
+      <c r="B827">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A828">
+        <v>85400</v>
+      </c>
+      <c r="B828">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A829">
+        <v>5674</v>
+      </c>
+      <c r="B829">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A830">
+        <v>54347</v>
+      </c>
+      <c r="B830">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A831">
+        <v>52354</v>
+      </c>
+      <c r="B831">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A832">
+        <v>5659</v>
+      </c>
+      <c r="B832">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A833">
+        <v>5051</v>
+      </c>
+      <c r="B833">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A834">
+        <v>23570</v>
+      </c>
+      <c r="B834">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A835">
+        <v>68176</v>
+      </c>
+      <c r="B835">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A836">
+        <v>13212</v>
+      </c>
+      <c r="B836">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A837">
+        <v>5649</v>
+      </c>
+      <c r="B837">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A838">
+        <v>13074</v>
+      </c>
+      <c r="B838">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A839">
+        <v>23855</v>
+      </c>
+      <c r="B839">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A840">
+        <v>54680</v>
+      </c>
+      <c r="B840">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A841">
+        <v>23068</v>
+      </c>
+      <c r="B841">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A842">
+        <v>23079</v>
+      </c>
+      <c r="B842">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A843">
+        <v>5055</v>
+      </c>
+      <c r="B843">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A844">
+        <v>66075</v>
+      </c>
+      <c r="B844">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A845">
+        <v>5690</v>
+      </c>
+      <c r="B845">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A846">
+        <v>23189</v>
+      </c>
+      <c r="B846">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A847">
+        <v>5282</v>
+      </c>
+      <c r="B847">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A848">
+        <v>52381</v>
+      </c>
+      <c r="B848">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A849">
+        <v>5021</v>
+      </c>
+      <c r="B849">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A850">
+        <v>15676</v>
+      </c>
+      <c r="B850">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A851">
+        <v>23686</v>
+      </c>
+      <c r="B851">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A852">
+        <v>5756</v>
+      </c>
+      <c r="B852">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A853">
+        <v>5361</v>
+      </c>
+      <c r="B853">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A854">
+        <v>86571</v>
+      </c>
+      <c r="B854">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A855">
+        <v>66440</v>
+      </c>
+      <c r="B855">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A856">
+        <v>8558</v>
+      </c>
+      <c r="B856">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A857">
+        <v>52480</v>
+      </c>
+      <c r="B857">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A858">
+        <v>5890</v>
+      </c>
+      <c r="B858">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A859">
+        <v>52788</v>
+      </c>
+      <c r="B859">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A860">
+        <v>5790</v>
+      </c>
+      <c r="B860">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A861">
+        <v>70702</v>
+      </c>
+      <c r="B861">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A862">
+        <v>70823</v>
+      </c>
+      <c r="B862">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A863">
+        <v>23670</v>
+      </c>
+      <c r="B863">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A864">
+        <v>19290</v>
+      </c>
+      <c r="B864">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A865">
+        <v>5125</v>
+      </c>
+      <c r="B865">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A866">
+        <v>18410</v>
+      </c>
+      <c r="B866">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A867">
+        <v>76054</v>
+      </c>
+      <c r="B867">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A868">
+        <v>23350</v>
+      </c>
+      <c r="B868">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A869">
+        <v>23182</v>
+      </c>
+      <c r="B869">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A870">
+        <v>5647</v>
+      </c>
+      <c r="B870">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A871">
+        <v>41518</v>
+      </c>
+      <c r="B871">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A872">
+        <v>19785</v>
+      </c>
+      <c r="B872">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A873">
+        <v>5197</v>
+      </c>
+      <c r="B873">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A874">
+        <v>5113</v>
+      </c>
+      <c r="B874">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A875">
+        <v>5353</v>
+      </c>
+      <c r="B875">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A876">
+        <v>5667</v>
+      </c>
+      <c r="B876">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A877">
+        <v>5038</v>
+      </c>
+      <c r="B877">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A878">
+        <v>15293</v>
+      </c>
+      <c r="B878">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A879">
+        <v>52352</v>
+      </c>
+      <c r="B879">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A880">
+        <v>5190</v>
+      </c>
+      <c r="B880">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A881">
+        <v>23672</v>
+      </c>
+      <c r="B881">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A882">
+        <v>17495</v>
+      </c>
+      <c r="B882">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A883">
+        <v>5761</v>
+      </c>
+      <c r="B883">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A884">
+        <v>85225</v>
+      </c>
+      <c r="B884">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A885">
+        <v>5240</v>
+      </c>
+      <c r="B885">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A886">
+        <v>19364</v>
+      </c>
+      <c r="B886">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A887">
+        <v>5665</v>
+      </c>
+      <c r="B887">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A888">
+        <v>18479</v>
+      </c>
+      <c r="B888">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A889">
+        <v>5142</v>
+      </c>
+      <c r="B889">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A890">
+        <v>41872</v>
+      </c>
+      <c r="B890">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A891">
+        <v>5585</v>
+      </c>
+      <c r="B891">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A892">
+        <v>5789</v>
+      </c>
+      <c r="B892">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A893">
+        <v>5310</v>
+      </c>
+      <c r="B893">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A894">
+        <v>5792</v>
+      </c>
+      <c r="B894">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A895">
+        <v>5652</v>
+      </c>
+      <c r="B895">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A896">
+        <v>52215</v>
+      </c>
+      <c r="B896">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A897">
+        <v>66045</v>
+      </c>
+      <c r="B897">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A898">
+        <v>5658</v>
+      </c>
+      <c r="B898">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A899">
+        <v>5842</v>
+      </c>
+      <c r="B899">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A900">
+        <v>85230</v>
+      </c>
+      <c r="B900">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A901">
+        <v>5628</v>
+      </c>
+      <c r="B901">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A902">
+        <v>5660</v>
+      </c>
+      <c r="B902">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A903">
+        <v>5134</v>
+      </c>
+      <c r="B903">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A904">
+        <v>5873</v>
+      </c>
+      <c r="B904">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A905">
+        <v>19585</v>
+      </c>
+      <c r="B905">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A906">
+        <v>5091</v>
+      </c>
+      <c r="B906">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A907">
+        <v>50110</v>
+      </c>
+      <c r="B907">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A908">
+        <v>27615</v>
+      </c>
+      <c r="B908">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A909">
+        <v>5306</v>
+      </c>
+      <c r="B909">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A910">
+        <v>68684</v>
+      </c>
+      <c r="B910">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A911">
+        <v>68266</v>
+      </c>
+      <c r="B911">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A912">
+        <v>5002</v>
+      </c>
+      <c r="B912">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A913">
+        <v>19418</v>
+      </c>
+      <c r="B913">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A914">
+        <v>5861</v>
+      </c>
+      <c r="B914">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A915">
+        <v>17446</v>
+      </c>
+      <c r="B915">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A916">
+        <v>8137</v>
+      </c>
+      <c r="B916">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A917">
+        <v>70670</v>
+      </c>
+      <c r="B917">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A918">
+        <v>5467</v>
+      </c>
+      <c r="B918">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A919">
+        <v>70523</v>
+      </c>
+      <c r="B919">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A920">
+        <v>5086</v>
+      </c>
+      <c r="B920">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A921">
+        <v>81300</v>
+      </c>
+      <c r="B921">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A922">
+        <v>5044</v>
+      </c>
+      <c r="B922">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A923">
+        <v>23586</v>
+      </c>
+      <c r="B923">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A924">
+        <v>5495</v>
+      </c>
+      <c r="B924">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A925">
+        <v>18460</v>
+      </c>
+      <c r="B925">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A926">
+        <v>5004</v>
+      </c>
+      <c r="B926">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A927">
+        <v>8675</v>
+      </c>
+      <c r="B927">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A928">
+        <v>19824</v>
+      </c>
+      <c r="B928">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A929">
+        <v>5543</v>
+      </c>
+      <c r="B929">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A930">
+        <v>5347</v>
+      </c>
+      <c r="B930">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A931">
+        <v>5284</v>
+      </c>
+      <c r="B931">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A932">
+        <v>23090</v>
+      </c>
+      <c r="B932">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A933">
+        <v>5475</v>
+      </c>
+      <c r="B933">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A934">
+        <v>5411</v>
+      </c>
+      <c r="B934">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A935">
+        <v>23464</v>
+      </c>
+      <c r="B935">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A936">
+        <v>5145</v>
+      </c>
+      <c r="B936">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A937">
+        <v>70418</v>
+      </c>
+      <c r="B937">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A938">
+        <v>54660</v>
+      </c>
+      <c r="B938">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A939">
+        <v>5209</v>
+      </c>
+      <c r="B939">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A940">
+        <v>13473</v>
+      </c>
+      <c r="B940">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A941">
+        <v>5576</v>
+      </c>
+      <c r="B941">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A942">
+        <v>54673</v>
+      </c>
+      <c r="B942">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A943">
+        <v>54261</v>
+      </c>
+      <c r="B943">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A944">
+        <v>5809</v>
+      </c>
+      <c r="B944">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A945">
+        <v>5501</v>
+      </c>
+      <c r="B945">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A946">
+        <v>5120</v>
+      </c>
+      <c r="B946">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A947">
+        <v>5036</v>
+      </c>
+      <c r="B947">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A948">
+        <v>5206</v>
+      </c>
+      <c r="B948">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A949">
+        <v>70713</v>
+      </c>
+      <c r="B949">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A950">
+        <v>68296</v>
+      </c>
+      <c r="B950">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A951">
+        <v>5040</v>
+      </c>
+      <c r="B951">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A952">
+        <v>27413</v>
+      </c>
+      <c r="B952">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A953">
+        <v>19513</v>
+      </c>
+      <c r="B953">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A954">
+        <v>47460</v>
+      </c>
+      <c r="B954">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A955">
+        <v>15106</v>
+      </c>
+      <c r="B955">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A956">
+        <v>54099</v>
+      </c>
+      <c r="B956">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A957">
+        <v>99001</v>
+      </c>
+      <c r="B957">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A958">
+        <v>8549</v>
+      </c>
+      <c r="B958">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A959">
+        <v>19300</v>
+      </c>
+      <c r="B959">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A960">
+        <v>47541</v>
+      </c>
+      <c r="B960">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A961">
+        <v>73124</v>
+      </c>
+      <c r="B961">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A962">
+        <v>86573</v>
+      </c>
+      <c r="B962">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A963">
+        <v>47703</v>
+      </c>
+      <c r="B963">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A964">
+        <v>88564</v>
+      </c>
+      <c r="B964">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A965">
+        <v>23682</v>
+      </c>
+      <c r="B965">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A966">
+        <v>13490</v>
+      </c>
+      <c r="B966">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A967">
+        <v>52036</v>
+      </c>
+      <c r="B967">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A968">
+        <v>47675</v>
+      </c>
+      <c r="B968">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A969">
+        <v>81220</v>
+      </c>
+      <c r="B969">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A970">
+        <v>23168</v>
+      </c>
+      <c r="B970">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A971">
+        <v>25580</v>
+      </c>
+      <c r="B971">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A972">
+        <v>50350</v>
+      </c>
+      <c r="B972">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A973">
+        <v>47745</v>
+      </c>
+      <c r="B973">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A974">
+        <v>27006</v>
+      </c>
+      <c r="B974">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A975">
+        <v>27800</v>
+      </c>
+      <c r="B975">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A976">
+        <v>15621</v>
+      </c>
+      <c r="B976">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A977">
+        <v>95200</v>
+      </c>
+      <c r="B977">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A978">
+        <v>27077</v>
+      </c>
+      <c r="B978">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A979">
+        <v>27099</v>
+      </c>
+      <c r="B979">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A980">
+        <v>27495</v>
+      </c>
+      <c r="B980">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A981">
+        <v>44420</v>
+      </c>
+      <c r="B981">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A982">
+        <v>23815</v>
+      </c>
+      <c r="B982">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A983">
         <v>27075</v>
       </c>
-      <c r="B820">
-        <v>3</v>
+      <c r="B983">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A984">
+        <v>15580</v>
+      </c>
+      <c r="B984">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A985">
+        <v>52687</v>
+      </c>
+      <c r="B985">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A986">
+        <v>15226</v>
+      </c>
+      <c r="B986">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A987">
+        <v>15131</v>
+      </c>
+      <c r="B987">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A988">
+        <v>47605</v>
+      </c>
+      <c r="B988">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A989">
+        <v>41483</v>
+      </c>
+      <c r="B989">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A990">
+        <v>52385</v>
+      </c>
+      <c r="B990">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A991">
+        <v>25592</v>
+      </c>
+      <c r="B991">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A992">
+        <v>47720</v>
+      </c>
+      <c r="B992">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A993">
+        <v>54820</v>
+      </c>
+      <c r="B993">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A994">
+        <v>99524</v>
+      </c>
+      <c r="B994">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A995">
+        <v>41503</v>
+      </c>
+      <c r="B995">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A996">
+        <v>99624</v>
+      </c>
+      <c r="B996">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A997">
+        <v>13894</v>
+      </c>
+      <c r="B997">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A998">
+        <v>15464</v>
+      </c>
+      <c r="B998">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A999">
+        <v>15368</v>
+      </c>
+      <c r="B999">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1000">
+        <v>85279</v>
+      </c>
+      <c r="B1000">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1001">
+        <v>47570</v>
+      </c>
+      <c r="B1001">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1002">
+        <v>15215</v>
+      </c>
+      <c r="B1002">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1003">
+        <v>86569</v>
+      </c>
+      <c r="B1003">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1004">
+        <v>15466</v>
+      </c>
+      <c r="B1004">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1005">
+        <v>68705</v>
+      </c>
+      <c r="B1005">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1006">
+        <v>15232</v>
+      </c>
+      <c r="B1006">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1007">
+        <v>27430</v>
+      </c>
+      <c r="B1007">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1008">
+        <v>27372</v>
+      </c>
+      <c r="B1008">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1009">
+        <v>25019</v>
+      </c>
+      <c r="B1009">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1010">
+        <v>27450</v>
+      </c>
+      <c r="B1010">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1011">
+        <v>27025</v>
+      </c>
+      <c r="B1011">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1012">
+        <v>25797</v>
+      </c>
+      <c r="B1012">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1013">
+        <v>18205</v>
+      </c>
+      <c r="B1013">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1014">
+        <v>52390</v>
+      </c>
+      <c r="B1014">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1015">
+        <v>97161</v>
+      </c>
+      <c r="B1015">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1016">
+        <v>99773</v>
+      </c>
+      <c r="B1016">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1017">
+        <v>52256</v>
+      </c>
+      <c r="B1017">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1018">
+        <v>50686</v>
+      </c>
+      <c r="B1018">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1019">
+        <v>15362</v>
+      </c>
+      <c r="B1019">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1020">
+        <v>68686</v>
+      </c>
+      <c r="B1020">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1021">
+        <v>20310</v>
+      </c>
+      <c r="B1021">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1022">
+        <v>27250</v>
+      </c>
+      <c r="B1022">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1023">
+        <v>76845</v>
+      </c>
+      <c r="B1023">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1024">
+        <v>47960</v>
+      </c>
+      <c r="B1024">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1025">
+        <v>54313</v>
+      </c>
+      <c r="B1025">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1026">
+        <v>86219</v>
+      </c>
+      <c r="B1026">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1027">
+        <v>25328</v>
+      </c>
+      <c r="B1027">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1028">
+        <v>68780</v>
+      </c>
+      <c r="B1028">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1029">
+        <v>47268</v>
+      </c>
+      <c r="B1029">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1030">
+        <v>18029</v>
+      </c>
+      <c r="B1030">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1031">
+        <v>13873</v>
+      </c>
+      <c r="B1031">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1032">
+        <v>15822</v>
+      </c>
+      <c r="B1032">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1033">
+        <v>15401</v>
+      </c>
+      <c r="B1033">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1034">
+        <v>50370</v>
+      </c>
+      <c r="B1034">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1035">
+        <v>18756</v>
+      </c>
+      <c r="B1035">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1036">
+        <v>15660</v>
+      </c>
+      <c r="B1036">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1037">
+        <v>52260</v>
+      </c>
+      <c r="B1037">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1038">
+        <v>15690</v>
+      </c>
+      <c r="B1038">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1039">
+        <v>25862</v>
+      </c>
+      <c r="B1039">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1040">
+        <v>63111</v>
+      </c>
+      <c r="B1040">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1041">
+        <v>25324</v>
+      </c>
+      <c r="B1041">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1042">
+        <v>15842</v>
+      </c>
+      <c r="B1042">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1043">
+        <v>52258</v>
+      </c>
+      <c r="B1043">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1044">
+        <v>15832</v>
+      </c>
+      <c r="B1044">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1045">
+        <v>54398</v>
+      </c>
+      <c r="B1045">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1046">
+        <v>47258</v>
+      </c>
+      <c r="B1046">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1047">
+        <v>54385</v>
+      </c>
+      <c r="B1047">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1048">
+        <v>25368</v>
+      </c>
+      <c r="B1048">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1049">
+        <v>15380</v>
+      </c>
+      <c r="B1049">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1050">
+        <v>47545</v>
+      </c>
+      <c r="B1050">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1051">
+        <v>20295</v>
+      </c>
+      <c r="B1051">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1052">
+        <v>25095</v>
+      </c>
+      <c r="B1052">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1053">
+        <v>68820</v>
+      </c>
+      <c r="B1053">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1054">
+        <v>15162</v>
+      </c>
+      <c r="B1054">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1055">
+        <v>25398</v>
+      </c>
+      <c r="B1055">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1056">
+        <v>15638</v>
+      </c>
+      <c r="B1056">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
